--- a/scripts/master_list.xlsx
+++ b/scripts/master_list.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW244"/>
+  <dimension ref="A1:AV244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,7 +569,7 @@
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>spedies_index</t>
+          <t>species_index</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>species_index</t>
+          <t>species_name2</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
@@ -600,11 +600,6 @@
       <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>family_name_rank</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>species_name2</t>
         </is>
       </c>
     </row>
@@ -742,19 +737,16 @@
           <t>Paridae</t>
         </is>
       </c>
-      <c r="AT2" t="n">
-        <v>1</v>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>Black-capped chickadee</t>
+        </is>
       </c>
       <c r="AU2" t="n">
         <v>16</v>
       </c>
       <c r="AV2" t="n">
         <v>31</v>
-      </c>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>Black-capped chickadee</t>
-        </is>
       </c>
     </row>
     <row r="3">
@@ -893,19 +885,16 @@
           <t>Sittidae</t>
         </is>
       </c>
-      <c r="AT3" t="n">
-        <v>2</v>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>White-breasted nuthatch</t>
+        </is>
       </c>
       <c r="AU3" t="n">
         <v>17</v>
       </c>
       <c r="AV3" t="n">
         <v>33</v>
-      </c>
-      <c r="AW3" t="inlineStr">
-        <is>
-          <t>White-breasted nuthatch</t>
-        </is>
       </c>
     </row>
     <row r="4">
@@ -1034,19 +1023,16 @@
           <t>Turdidae</t>
         </is>
       </c>
-      <c r="AT4" t="n">
-        <v>3</v>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>Veery</t>
+        </is>
       </c>
       <c r="AU4" t="n">
         <v>20</v>
       </c>
       <c r="AV4" t="n">
         <v>37</v>
-      </c>
-      <c r="AW4" t="inlineStr">
-        <is>
-          <t>Veery</t>
-        </is>
       </c>
     </row>
     <row r="5">
@@ -1189,19 +1175,16 @@
           <t>Turdidae</t>
         </is>
       </c>
-      <c r="AT5" t="n">
-        <v>4</v>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>American robin</t>
+        </is>
       </c>
       <c r="AU5" t="n">
         <v>20</v>
       </c>
       <c r="AV5" t="n">
         <v>37</v>
-      </c>
-      <c r="AW5" t="inlineStr">
-        <is>
-          <t>American robin</t>
-        </is>
       </c>
     </row>
     <row r="6">
@@ -1330,19 +1313,16 @@
           <t>Mimidae</t>
         </is>
       </c>
-      <c r="AT6" t="n">
-        <v>5</v>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>Gray catbird</t>
+        </is>
       </c>
       <c r="AU6" t="n">
         <v>21</v>
       </c>
       <c r="AV6" t="n">
         <v>38</v>
-      </c>
-      <c r="AW6" t="inlineStr">
-        <is>
-          <t>Gray catbird</t>
-        </is>
       </c>
     </row>
     <row r="7">
@@ -1473,19 +1453,16 @@
           <t>Parulidae</t>
         </is>
       </c>
-      <c r="AT7" t="n">
-        <v>6</v>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>Common yellowthroat</t>
+        </is>
       </c>
       <c r="AU7" t="n">
         <v>26</v>
       </c>
       <c r="AV7" t="n">
         <v>46</v>
-      </c>
-      <c r="AW7" t="inlineStr">
-        <is>
-          <t>Common yellowthroat</t>
-        </is>
       </c>
     </row>
     <row r="8">
@@ -1616,19 +1593,16 @@
           <t>Anatidae</t>
         </is>
       </c>
-      <c r="AT8" t="n">
-        <v>7</v>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>Canada goose</t>
+        </is>
       </c>
       <c r="AU8" t="n">
         <v>1</v>
       </c>
       <c r="AV8" t="n">
         <v>1</v>
-      </c>
-      <c r="AW8" t="inlineStr">
-        <is>
-          <t>Canada goose</t>
-        </is>
       </c>
     </row>
     <row r="9">
@@ -1759,19 +1733,16 @@
           <t>Anatidae</t>
         </is>
       </c>
-      <c r="AT9" t="n">
-        <v>8</v>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>Mallard</t>
+        </is>
       </c>
       <c r="AU9" t="n">
         <v>1</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
-      </c>
-      <c r="AW9" t="inlineStr">
-        <is>
-          <t>Mallard</t>
-        </is>
       </c>
     </row>
     <row r="10">
@@ -1900,19 +1871,16 @@
           <t>Apodidae</t>
         </is>
       </c>
-      <c r="AT10" t="n">
-        <v>9</v>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>Chimney Swift</t>
+        </is>
       </c>
       <c r="AU10" t="n">
         <v>5</v>
       </c>
       <c r="AV10" t="n">
         <v>8</v>
-      </c>
-      <c r="AW10" t="inlineStr">
-        <is>
-          <t>Chimney Swift</t>
-        </is>
       </c>
     </row>
     <row r="11">
@@ -2041,19 +2009,16 @@
           <t>Charadriidae</t>
         </is>
       </c>
-      <c r="AT11" t="n">
-        <v>10</v>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>Killdeer</t>
+        </is>
       </c>
       <c r="AU11" t="n">
         <v>7</v>
       </c>
       <c r="AV11" t="n">
         <v>13</v>
-      </c>
-      <c r="AW11" t="inlineStr">
-        <is>
-          <t>Killdeer</t>
-        </is>
       </c>
     </row>
     <row r="12">
@@ -2174,19 +2139,16 @@
           <t>Phalacrocoracidae</t>
         </is>
       </c>
-      <c r="AT12" t="n">
-        <v>11</v>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>Double-crested cormorant</t>
+        </is>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
       </c>
       <c r="AV12" t="n">
         <v>18</v>
-      </c>
-      <c r="AW12" t="inlineStr">
-        <is>
-          <t>Double-crested cormorant</t>
-        </is>
       </c>
     </row>
     <row r="13">
@@ -2313,19 +2275,16 @@
           <t>Accipitridae</t>
         </is>
       </c>
-      <c r="AT13" t="n">
-        <v>12</v>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>Red-shouldered hawk</t>
+        </is>
       </c>
       <c r="AU13" t="n">
         <v>10</v>
       </c>
       <c r="AV13" t="n">
         <v>21</v>
-      </c>
-      <c r="AW13" t="inlineStr">
-        <is>
-          <t>Red-shouldered hawk</t>
-        </is>
       </c>
     </row>
     <row r="14">
@@ -2446,19 +2405,16 @@
           <t>Picidae</t>
         </is>
       </c>
-      <c r="AT14" t="n">
-        <v>13</v>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>Red-bellied woodpecker</t>
+        </is>
       </c>
       <c r="AU14" t="n">
         <v>11</v>
       </c>
       <c r="AV14" t="n">
         <v>23</v>
-      </c>
-      <c r="AW14" t="inlineStr">
-        <is>
-          <t>Red-bellied woodpecker</t>
-        </is>
       </c>
     </row>
     <row r="15">
@@ -2579,19 +2535,16 @@
           <t>Anatidae</t>
         </is>
       </c>
-      <c r="AT15" t="n">
-        <v>14</v>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>American wigeon</t>
+        </is>
       </c>
       <c r="AU15" t="n">
         <v>1</v>
       </c>
       <c r="AV15" t="n">
         <v>1</v>
-      </c>
-      <c r="AW15" t="inlineStr">
-        <is>
-          <t>American wigeon</t>
-        </is>
       </c>
     </row>
     <row r="16">
@@ -2712,19 +2665,16 @@
           <t>Podicipedidae</t>
         </is>
       </c>
-      <c r="AT16" t="n">
-        <v>15</v>
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>Pied-billed grebe</t>
+        </is>
       </c>
       <c r="AU16" t="n">
         <v>3</v>
       </c>
       <c r="AV16" t="n">
         <v>5</v>
-      </c>
-      <c r="AW16" t="inlineStr">
-        <is>
-          <t>Pied-billed grebe</t>
-        </is>
       </c>
     </row>
     <row r="17">
@@ -2853,19 +2803,16 @@
           <t>Gruidae</t>
         </is>
       </c>
-      <c r="AT17" t="n">
-        <v>16</v>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>Sandhill crane</t>
+        </is>
       </c>
       <c r="AU17" t="n">
         <v>6</v>
       </c>
       <c r="AV17" t="n">
         <v>12</v>
-      </c>
-      <c r="AW17" t="inlineStr">
-        <is>
-          <t>Sandhill crane</t>
-        </is>
       </c>
     </row>
     <row r="18">
@@ -2986,19 +2933,16 @@
           <t>Procellariidae</t>
         </is>
       </c>
-      <c r="AT18" t="n">
-        <v>17</v>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>Sooty shearwater</t>
+        </is>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
       </c>
       <c r="AV18" t="n">
         <v>17</v>
-      </c>
-      <c r="AW18" t="inlineStr">
-        <is>
-          <t>Sooty shearwater</t>
-        </is>
       </c>
     </row>
     <row r="19">
@@ -3129,19 +3073,16 @@
           <t>Anhingidae</t>
         </is>
       </c>
-      <c r="AT19" t="n">
-        <v>18</v>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>Anhinga</t>
+        </is>
       </c>
       <c r="AU19" t="n">
         <v>9</v>
       </c>
       <c r="AV19" t="n">
         <v>19</v>
-      </c>
-      <c r="AW19" t="inlineStr">
-        <is>
-          <t>Anhinga</t>
-        </is>
       </c>
     </row>
     <row r="20">
@@ -3272,19 +3213,16 @@
           <t>Troglodytidae</t>
         </is>
       </c>
-      <c r="AT20" t="n">
-        <v>19</v>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>Carolina wren</t>
+        </is>
       </c>
       <c r="AU20" t="n">
         <v>18</v>
       </c>
       <c r="AV20" t="n">
         <v>34</v>
-      </c>
-      <c r="AW20" t="inlineStr">
-        <is>
-          <t>Carolina wren</t>
-        </is>
       </c>
     </row>
     <row r="21">
@@ -3411,19 +3349,16 @@
           <t>Sylviidae</t>
         </is>
       </c>
-      <c r="AT21" t="n">
-        <v>20</v>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>Wrentit</t>
+        </is>
       </c>
       <c r="AU21" t="n">
         <v>19</v>
       </c>
       <c r="AV21" t="n">
         <v>36</v>
-      </c>
-      <c r="AW21" t="inlineStr">
-        <is>
-          <t>Wrentit</t>
-        </is>
       </c>
     </row>
     <row r="22">
@@ -3554,19 +3489,16 @@
           <t>Icteridae</t>
         </is>
       </c>
-      <c r="AT22" t="n">
-        <v>21</v>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>Baltimore oriole</t>
+        </is>
       </c>
       <c r="AU22" t="n">
         <v>25</v>
       </c>
       <c r="AV22" t="n">
         <v>45</v>
-      </c>
-      <c r="AW22" t="inlineStr">
-        <is>
-          <t>Baltimore oriole</t>
-        </is>
       </c>
     </row>
     <row r="23">
@@ -3701,19 +3633,16 @@
           <t>Icteridae</t>
         </is>
       </c>
-      <c r="AT23" t="n">
-        <v>22</v>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>Red-winged blackbird</t>
+        </is>
       </c>
       <c r="AU23" t="n">
         <v>25</v>
       </c>
       <c r="AV23" t="n">
         <v>45</v>
-      </c>
-      <c r="AW23" t="inlineStr">
-        <is>
-          <t>Red-winged blackbird</t>
-        </is>
       </c>
     </row>
     <row r="24">
@@ -3850,19 +3779,16 @@
           <t>Cardinalidae</t>
         </is>
       </c>
-      <c r="AT24" t="n">
-        <v>23</v>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>Northern cardinal</t>
+        </is>
       </c>
       <c r="AU24" t="n">
         <v>27</v>
       </c>
       <c r="AV24" t="n">
         <v>47</v>
-      </c>
-      <c r="AW24" t="inlineStr">
-        <is>
-          <t>Northern cardinal</t>
-        </is>
       </c>
     </row>
     <row r="25">
@@ -3997,19 +3923,16 @@
           <t>Cardinalidae</t>
         </is>
       </c>
-      <c r="AT25" t="n">
-        <v>24</v>
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>Rose-breasted grosbeak</t>
+        </is>
       </c>
       <c r="AU25" t="n">
         <v>27</v>
       </c>
       <c r="AV25" t="n">
         <v>47</v>
-      </c>
-      <c r="AW25" t="inlineStr">
-        <is>
-          <t>Rose-breasted grosbeak</t>
-        </is>
       </c>
     </row>
     <row r="26">
@@ -4132,19 +4055,16 @@
           <t>Columbidae</t>
         </is>
       </c>
-      <c r="AT26" t="n">
-        <v>25</v>
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>Mourning dove</t>
+        </is>
       </c>
       <c r="AU26" t="n">
         <v>3</v>
       </c>
       <c r="AV26" t="n">
         <v>6</v>
-      </c>
-      <c r="AW26" t="inlineStr">
-        <is>
-          <t>Mourning dove</t>
-        </is>
       </c>
     </row>
     <row r="27">
@@ -4265,19 +4185,16 @@
           <t>Anatidae</t>
         </is>
       </c>
-      <c r="AT27" t="n">
-        <v>26</v>
+      <c r="AT27" t="inlineStr">
+        <is>
+          <t>Ruddy duck</t>
+        </is>
       </c>
       <c r="AU27" t="n">
         <v>1</v>
       </c>
       <c r="AV27" t="n">
         <v>1</v>
-      </c>
-      <c r="AW27" t="inlineStr">
-        <is>
-          <t>Ruddy duck</t>
-        </is>
       </c>
     </row>
     <row r="28">
@@ -4400,19 +4317,16 @@
           <t>Caprimulgidae</t>
         </is>
       </c>
-      <c r="AT28" t="n">
-        <v>27</v>
+      <c r="AT28" t="inlineStr">
+        <is>
+          <t>Common nighthawk</t>
+        </is>
       </c>
       <c r="AU28" t="n">
         <v>4</v>
       </c>
       <c r="AV28" t="n">
         <v>7</v>
-      </c>
-      <c r="AW28" t="inlineStr">
-        <is>
-          <t>Common nighthawk</t>
-        </is>
       </c>
     </row>
     <row r="29">
@@ -4535,19 +4449,16 @@
           <t>Trochilidae</t>
         </is>
       </c>
-      <c r="AT29" t="n">
-        <v>28</v>
+      <c r="AT29" t="inlineStr">
+        <is>
+          <t>Broad-tailed hummingbird</t>
+        </is>
       </c>
       <c r="AU29" t="n">
         <v>5</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
-      </c>
-      <c r="AW29" t="inlineStr">
-        <is>
-          <t>Broad-tailed hummingbird</t>
-        </is>
       </c>
     </row>
     <row r="30">
@@ -4670,19 +4581,16 @@
           <t>Scolopacidae</t>
         </is>
       </c>
-      <c r="AT30" t="n">
-        <v>29</v>
+      <c r="AT30" t="inlineStr">
+        <is>
+          <t>Wilson's snipe</t>
+        </is>
       </c>
       <c r="AU30" t="n">
         <v>7</v>
       </c>
       <c r="AV30" t="n">
         <v>14</v>
-      </c>
-      <c r="AW30" t="inlineStr">
-        <is>
-          <t>Wilson's snipe</t>
-        </is>
       </c>
     </row>
     <row r="31">
@@ -4803,19 +4711,16 @@
           <t>Picidae</t>
         </is>
       </c>
-      <c r="AT31" t="n">
-        <v>30</v>
+      <c r="AT31" t="inlineStr">
+        <is>
+          <t>Northern flicker</t>
+        </is>
       </c>
       <c r="AU31" t="n">
         <v>11</v>
       </c>
       <c r="AV31" t="n">
         <v>23</v>
-      </c>
-      <c r="AW31" t="inlineStr">
-        <is>
-          <t>Northern flicker</t>
-        </is>
       </c>
     </row>
     <row r="32">
@@ -4938,19 +4843,16 @@
           <t>Picidae</t>
         </is>
       </c>
-      <c r="AT32" t="n">
-        <v>31</v>
+      <c r="AT32" t="inlineStr">
+        <is>
+          <t>Pileated woodpecker</t>
+        </is>
       </c>
       <c r="AU32" t="n">
         <v>11</v>
       </c>
       <c r="AV32" t="n">
         <v>23</v>
-      </c>
-      <c r="AW32" t="inlineStr">
-        <is>
-          <t>Pileated woodpecker</t>
-        </is>
       </c>
     </row>
     <row r="33">
@@ -5104,19 +5006,16 @@
           <t>Picidae</t>
         </is>
       </c>
-      <c r="AT33" t="n">
-        <v>32</v>
+      <c r="AT33" t="inlineStr">
+        <is>
+          <t>Red-naped sapsucker</t>
+        </is>
       </c>
       <c r="AU33" t="n">
         <v>11</v>
       </c>
       <c r="AV33" t="n">
         <v>23</v>
-      </c>
-      <c r="AW33" t="inlineStr">
-        <is>
-          <t>Red-naped sapsucker</t>
-        </is>
       </c>
     </row>
     <row r="34">
@@ -5235,19 +5134,16 @@
           <t>Caprimulgidae</t>
         </is>
       </c>
-      <c r="AT34" t="n">
-        <v>33</v>
+      <c r="AT34" t="inlineStr">
+        <is>
+          <t>Eastern whip-poor-will</t>
+        </is>
       </c>
       <c r="AU34" t="n">
         <v>4</v>
       </c>
       <c r="AV34" t="n">
         <v>7</v>
-      </c>
-      <c r="AW34" t="inlineStr">
-        <is>
-          <t>Eastern whip-poor-will</t>
-        </is>
       </c>
     </row>
     <row r="35">
@@ -5374,19 +5270,16 @@
           <t>Rallidae</t>
         </is>
       </c>
-      <c r="AT35" t="n">
-        <v>34</v>
+      <c r="AT35" t="inlineStr">
+        <is>
+          <t>Virginia rail</t>
+        </is>
       </c>
       <c r="AU35" t="n">
         <v>6</v>
       </c>
       <c r="AV35" t="n">
         <v>10</v>
-      </c>
-      <c r="AW35" t="inlineStr">
-        <is>
-          <t>Virginia rail</t>
-        </is>
       </c>
     </row>
     <row r="36">
@@ -5501,19 +5394,16 @@
           <t>Mimidae</t>
         </is>
       </c>
-      <c r="AT36" t="n">
-        <v>35</v>
+      <c r="AT36" t="inlineStr">
+        <is>
+          <t>Brown thrasher</t>
+        </is>
       </c>
       <c r="AU36" t="n">
         <v>21</v>
       </c>
       <c r="AV36" t="n">
         <v>38</v>
-      </c>
-      <c r="AW36" t="inlineStr">
-        <is>
-          <t>Brown thrasher</t>
-        </is>
       </c>
     </row>
     <row r="37">
@@ -5630,19 +5520,16 @@
           <t>Parulidae</t>
         </is>
       </c>
-      <c r="AT37" t="n">
-        <v>36</v>
+      <c r="AT37" t="inlineStr">
+        <is>
+          <t>Black-throated blue warbler</t>
+        </is>
       </c>
       <c r="AU37" t="n">
         <v>26</v>
       </c>
       <c r="AV37" t="n">
         <v>46</v>
-      </c>
-      <c r="AW37" t="inlineStr">
-        <is>
-          <t>Black-throated blue warbler</t>
-        </is>
       </c>
     </row>
     <row r="38">
@@ -5757,19 +5644,16 @@
           <t>Phasianidae</t>
         </is>
       </c>
-      <c r="AT38" t="n">
-        <v>37</v>
+      <c r="AT38" t="inlineStr">
+        <is>
+          <t>Wild turkey</t>
+        </is>
       </c>
       <c r="AU38" t="n">
         <v>2</v>
       </c>
       <c r="AV38" t="n">
         <v>4</v>
-      </c>
-      <c r="AW38" t="inlineStr">
-        <is>
-          <t>Wild turkey</t>
-        </is>
       </c>
     </row>
     <row r="39">
@@ -5884,19 +5768,16 @@
           <t>Cardinalidae</t>
         </is>
       </c>
-      <c r="AT39" t="n">
-        <v>38</v>
+      <c r="AT39" t="inlineStr">
+        <is>
+          <t>Dickcissel</t>
+        </is>
       </c>
       <c r="AU39" t="n">
         <v>27</v>
       </c>
       <c r="AV39" t="n">
         <v>47</v>
-      </c>
-      <c r="AW39" t="inlineStr">
-        <is>
-          <t>Dickcissel</t>
-        </is>
       </c>
     </row>
     <row r="40">
@@ -6015,19 +5896,16 @@
           <t>Icteridae</t>
         </is>
       </c>
-      <c r="AT40" t="n">
-        <v>39</v>
+      <c r="AT40" t="inlineStr">
+        <is>
+          <t>Yellow-headed blackbird</t>
+        </is>
       </c>
       <c r="AU40" t="n">
         <v>25</v>
       </c>
       <c r="AV40" t="n">
         <v>45</v>
-      </c>
-      <c r="AW40" t="inlineStr">
-        <is>
-          <t>Yellow-headed blackbird</t>
-        </is>
       </c>
     </row>
     <row r="41">
@@ -6148,19 +6026,16 @@
           <t>Fringillidae</t>
         </is>
       </c>
-      <c r="AT41" t="n">
-        <v>40</v>
+      <c r="AT41" t="inlineStr">
+        <is>
+          <t>House finch</t>
+        </is>
       </c>
       <c r="AU41" t="n">
         <v>23</v>
       </c>
       <c r="AV41" t="n">
         <v>42</v>
-      </c>
-      <c r="AW41" t="inlineStr">
-        <is>
-          <t>House finch</t>
-        </is>
       </c>
     </row>
     <row r="42">
@@ -6277,19 +6152,16 @@
           <t>Fringillidae</t>
         </is>
       </c>
-      <c r="AT42" t="n">
-        <v>41</v>
+      <c r="AT42" t="inlineStr">
+        <is>
+          <t>Cassin’s finch</t>
+        </is>
       </c>
       <c r="AU42" t="n">
         <v>23</v>
       </c>
       <c r="AV42" t="n">
         <v>42</v>
-      </c>
-      <c r="AW42" t="inlineStr">
-        <is>
-          <t>Cassin’s finch</t>
-        </is>
       </c>
     </row>
     <row r="43">
@@ -6406,19 +6278,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT43" t="n">
-        <v>42</v>
+      <c r="AT43" t="inlineStr">
+        <is>
+          <t>Lark sparrow</t>
+        </is>
       </c>
       <c r="AU43" t="n">
         <v>24</v>
       </c>
       <c r="AV43" t="n">
         <v>44</v>
-      </c>
-      <c r="AW43" t="inlineStr">
-        <is>
-          <t>Lark sparrow</t>
-        </is>
       </c>
     </row>
     <row r="44">
@@ -6537,19 +6406,16 @@
           <t>Cardinalidae</t>
         </is>
       </c>
-      <c r="AT44" t="n">
-        <v>43</v>
+      <c r="AT44" t="inlineStr">
+        <is>
+          <t>Rose-breasted grosbeak</t>
+        </is>
       </c>
       <c r="AU44" t="n">
         <v>27</v>
       </c>
       <c r="AV44" t="n">
         <v>47</v>
-      </c>
-      <c r="AW44" t="inlineStr">
-        <is>
-          <t>Rose-breasted grosbeak</t>
-        </is>
       </c>
     </row>
     <row r="45">
@@ -6678,19 +6544,16 @@
           <t>Mimidae</t>
         </is>
       </c>
-      <c r="AT45" t="n">
-        <v>44</v>
+      <c r="AT45" t="inlineStr">
+        <is>
+          <t>California thrasher</t>
+        </is>
       </c>
       <c r="AU45" t="n">
         <v>21</v>
       </c>
       <c r="AV45" t="n">
         <v>39</v>
-      </c>
-      <c r="AW45" t="inlineStr">
-        <is>
-          <t>California thrasher</t>
-        </is>
       </c>
     </row>
     <row r="46">
@@ -6817,19 +6680,16 @@
           <t>Troglodytidae</t>
         </is>
       </c>
-      <c r="AT46" t="n">
-        <v>45</v>
+      <c r="AT46" t="inlineStr">
+        <is>
+          <t>Marsh wren</t>
+        </is>
       </c>
       <c r="AU46" t="n">
         <v>18</v>
       </c>
       <c r="AV46" t="n">
         <v>34</v>
-      </c>
-      <c r="AW46" t="inlineStr">
-        <is>
-          <t>Marsh wren</t>
-        </is>
       </c>
     </row>
     <row r="47">
@@ -6946,19 +6806,16 @@
           <t>Troglodytidae</t>
         </is>
       </c>
-      <c r="AT47" t="n">
-        <v>46</v>
+      <c r="AT47" t="inlineStr">
+        <is>
+          <t>Carolina wren</t>
+        </is>
       </c>
       <c r="AU47" t="n">
         <v>18</v>
       </c>
       <c r="AV47" t="n">
         <v>34</v>
-      </c>
-      <c r="AW47" t="inlineStr">
-        <is>
-          <t>Carolina wren</t>
-        </is>
       </c>
     </row>
     <row r="48">
@@ -7073,19 +6930,16 @@
           <t>Tyrannidae</t>
         </is>
       </c>
-      <c r="AT48" t="n">
-        <v>47</v>
+      <c r="AT48" t="inlineStr">
+        <is>
+          <t>Eastern phoebe</t>
+        </is>
       </c>
       <c r="AU48" t="n">
         <v>12</v>
       </c>
       <c r="AV48" t="n">
         <v>25</v>
-      </c>
-      <c r="AW48" t="inlineStr">
-        <is>
-          <t>Eastern phoebe</t>
-        </is>
       </c>
     </row>
     <row r="49">
@@ -7200,19 +7054,16 @@
           <t>Odontophoridae</t>
         </is>
       </c>
-      <c r="AT49" t="n">
-        <v>48</v>
+      <c r="AT49" t="inlineStr">
+        <is>
+          <t>California quail</t>
+        </is>
       </c>
       <c r="AU49" t="n">
         <v>2</v>
       </c>
       <c r="AV49" t="n">
         <v>3</v>
-      </c>
-      <c r="AW49" t="inlineStr">
-        <is>
-          <t>California quail</t>
-        </is>
       </c>
     </row>
     <row r="50">
@@ -7329,19 +7180,16 @@
           <t>Laridae</t>
         </is>
       </c>
-      <c r="AT50" t="n">
-        <v>49</v>
+      <c r="AT50" t="inlineStr">
+        <is>
+          <t>Western gull</t>
+        </is>
       </c>
       <c r="AU50" t="n">
         <v>7</v>
       </c>
       <c r="AV50" t="n">
         <v>15</v>
-      </c>
-      <c r="AW50" t="inlineStr">
-        <is>
-          <t>Western gull</t>
-        </is>
       </c>
     </row>
     <row r="51">
@@ -7460,19 +7308,16 @@
           <t>Mimidae</t>
         </is>
       </c>
-      <c r="AT51" t="n">
-        <v>50</v>
+      <c r="AT51" t="inlineStr">
+        <is>
+          <t>Sage thrasher</t>
+        </is>
       </c>
       <c r="AU51" t="n">
         <v>21</v>
       </c>
       <c r="AV51" t="n">
         <v>38</v>
-      </c>
-      <c r="AW51" t="inlineStr">
-        <is>
-          <t>Sage thrasher</t>
-        </is>
       </c>
     </row>
     <row r="52">
@@ -7593,19 +7438,16 @@
           <t>Turdidae</t>
         </is>
       </c>
-      <c r="AT52" t="n">
-        <v>51</v>
+      <c r="AT52" t="inlineStr">
+        <is>
+          <t>Wood thrush</t>
+        </is>
       </c>
       <c r="AU52" t="n">
         <v>20</v>
       </c>
       <c r="AV52" t="n">
         <v>37</v>
-      </c>
-      <c r="AW52" t="inlineStr">
-        <is>
-          <t>Wood thrush</t>
-        </is>
       </c>
     </row>
     <row r="53">
@@ -7720,19 +7562,16 @@
           <t>Turdidae</t>
         </is>
       </c>
-      <c r="AT53" t="n">
-        <v>52</v>
+      <c r="AT53" t="inlineStr">
+        <is>
+          <t>Varied thrush</t>
+        </is>
       </c>
       <c r="AU53" t="n">
         <v>20</v>
       </c>
       <c r="AV53" t="n">
         <v>37</v>
-      </c>
-      <c r="AW53" t="inlineStr">
-        <is>
-          <t>Varied thrush</t>
-        </is>
       </c>
     </row>
     <row r="54">
@@ -7853,19 +7692,16 @@
           <t>Cardinalidae</t>
         </is>
       </c>
-      <c r="AT54" t="n">
-        <v>53</v>
+      <c r="AT54" t="inlineStr">
+        <is>
+          <t>Northern cardinal</t>
+        </is>
       </c>
       <c r="AU54" t="n">
         <v>27</v>
       </c>
       <c r="AV54" t="n">
         <v>47</v>
-      </c>
-      <c r="AW54" t="inlineStr">
-        <is>
-          <t>Northern cardinal</t>
-        </is>
       </c>
     </row>
     <row r="55">
@@ -7998,19 +7834,16 @@
           <t>Icteridae</t>
         </is>
       </c>
-      <c r="AT55" t="n">
-        <v>54</v>
+      <c r="AT55" t="inlineStr">
+        <is>
+          <t>Brown-headed cowbird</t>
+        </is>
       </c>
       <c r="AU55" t="n">
         <v>25</v>
       </c>
       <c r="AV55" t="n">
         <v>45</v>
-      </c>
-      <c r="AW55" t="inlineStr">
-        <is>
-          <t>Brown-headed cowbird</t>
-        </is>
       </c>
     </row>
     <row r="56">
@@ -8127,19 +7960,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT56" t="n">
-        <v>55</v>
+      <c r="AT56" t="inlineStr">
+        <is>
+          <t>Henslow's sparrow</t>
+        </is>
       </c>
       <c r="AU56" t="n">
         <v>24</v>
       </c>
       <c r="AV56" t="n">
         <v>44</v>
-      </c>
-      <c r="AW56" t="inlineStr">
-        <is>
-          <t>Henslow's sparrow</t>
-        </is>
       </c>
     </row>
     <row r="57">
@@ -8256,19 +8086,16 @@
           <t>Troglodytidae</t>
         </is>
       </c>
-      <c r="AT57" t="n">
-        <v>56</v>
+      <c r="AT57" t="inlineStr">
+        <is>
+          <t>Pacific wren</t>
+        </is>
       </c>
       <c r="AU57" t="n">
         <v>18</v>
       </c>
       <c r="AV57" t="n">
         <v>34</v>
-      </c>
-      <c r="AW57" t="inlineStr">
-        <is>
-          <t>Pacific wren</t>
-        </is>
       </c>
     </row>
     <row r="58">
@@ -8383,19 +8210,16 @@
           <t>Columbidae</t>
         </is>
       </c>
-      <c r="AT58" t="n">
-        <v>57</v>
+      <c r="AT58" t="inlineStr">
+        <is>
+          <t>Rock pigeon</t>
+        </is>
       </c>
       <c r="AU58" t="n">
         <v>3</v>
       </c>
       <c r="AV58" t="n">
         <v>6</v>
-      </c>
-      <c r="AW58" t="inlineStr">
-        <is>
-          <t>Rock pigeon</t>
-        </is>
       </c>
     </row>
     <row r="59">
@@ -8512,19 +8336,16 @@
           <t>Odontophoridae</t>
         </is>
       </c>
-      <c r="AT59" t="n">
-        <v>58</v>
+      <c r="AT59" t="inlineStr">
+        <is>
+          <t>Red junglefowl</t>
+        </is>
       </c>
       <c r="AU59" t="n">
         <v>2</v>
       </c>
       <c r="AV59" t="n">
         <v>3</v>
-      </c>
-      <c r="AW59" t="inlineStr">
-        <is>
-          <t>Red junglefowl</t>
-        </is>
       </c>
     </row>
     <row r="60">
@@ -8639,19 +8460,16 @@
           <t>Odontophoridae</t>
         </is>
       </c>
-      <c r="AT60" t="n">
-        <v>59</v>
+      <c r="AT60" t="inlineStr">
+        <is>
+          <t>Northern bobwhite</t>
+        </is>
       </c>
       <c r="AU60" t="n">
         <v>2</v>
       </c>
       <c r="AV60" t="n">
         <v>3</v>
-      </c>
-      <c r="AW60" t="inlineStr">
-        <is>
-          <t>Northern bobwhite</t>
-        </is>
       </c>
     </row>
     <row r="61">
@@ -8768,19 +8586,16 @@
           <t>Columbidae</t>
         </is>
       </c>
-      <c r="AT61" t="n">
-        <v>60</v>
+      <c r="AT61" t="inlineStr">
+        <is>
+          <t>Mourning dove</t>
+        </is>
       </c>
       <c r="AU61" t="n">
         <v>3</v>
       </c>
       <c r="AV61" t="n">
         <v>6</v>
-      </c>
-      <c r="AW61" t="inlineStr">
-        <is>
-          <t>Mourning dove</t>
-        </is>
       </c>
     </row>
     <row r="62">
@@ -8895,19 +8710,16 @@
           <t>Columbidae</t>
         </is>
       </c>
-      <c r="AT62" t="n">
-        <v>61</v>
+      <c r="AT62" t="inlineStr">
+        <is>
+          <t>Eurasian collared dove</t>
+        </is>
       </c>
       <c r="AU62" t="n">
         <v>3</v>
       </c>
       <c r="AV62" t="n">
         <v>6</v>
-      </c>
-      <c r="AW62" t="inlineStr">
-        <is>
-          <t>Eurasian collared dove</t>
-        </is>
       </c>
     </row>
     <row r="63">
@@ -9046,19 +8858,16 @@
           <t>Tyrannidae</t>
         </is>
       </c>
-      <c r="AT63" t="n">
-        <v>62</v>
+      <c r="AT63" t="inlineStr">
+        <is>
+          <t>Alder flycatcher</t>
+        </is>
       </c>
       <c r="AU63" t="n">
         <v>12</v>
       </c>
       <c r="AV63" t="n">
         <v>25</v>
-      </c>
-      <c r="AW63" t="inlineStr">
-        <is>
-          <t>Alder flycatcher</t>
-        </is>
       </c>
     </row>
     <row r="64">
@@ -9187,19 +8996,16 @@
           <t>Tyrannidae</t>
         </is>
       </c>
-      <c r="AT64" t="n">
-        <v>63</v>
+      <c r="AT64" t="inlineStr">
+        <is>
+          <t>Eastern phoebe</t>
+        </is>
       </c>
       <c r="AU64" t="n">
         <v>12</v>
       </c>
       <c r="AV64" t="n">
         <v>25</v>
-      </c>
-      <c r="AW64" t="inlineStr">
-        <is>
-          <t>Eastern phoebe</t>
-        </is>
       </c>
     </row>
     <row r="65">
@@ -9322,19 +9128,16 @@
           <t>Vireonidae</t>
         </is>
       </c>
-      <c r="AT65" t="n">
-        <v>64</v>
+      <c r="AT65" t="inlineStr">
+        <is>
+          <t>Red-eyed vireo</t>
+        </is>
       </c>
       <c r="AU65" t="n">
         <v>13</v>
       </c>
       <c r="AV65" t="n">
         <v>27</v>
-      </c>
-      <c r="AW65" t="inlineStr">
-        <is>
-          <t>Red-eyed vireo</t>
-        </is>
       </c>
     </row>
     <row r="66">
@@ -9449,19 +9252,16 @@
           <t>Troglodytidae</t>
         </is>
       </c>
-      <c r="AT66" t="n">
-        <v>65</v>
+      <c r="AT66" t="inlineStr">
+        <is>
+          <t>Sedge wren</t>
+        </is>
       </c>
       <c r="AU66" t="n">
         <v>18</v>
       </c>
       <c r="AV66" t="n">
         <v>34</v>
-      </c>
-      <c r="AW66" t="inlineStr">
-        <is>
-          <t>Sedge wren</t>
-        </is>
       </c>
     </row>
     <row r="67">
@@ -9578,19 +9378,16 @@
           <t>Mimidae</t>
         </is>
       </c>
-      <c r="AT67" t="n">
-        <v>66</v>
+      <c r="AT67" t="inlineStr">
+        <is>
+          <t>Gray catbird</t>
+        </is>
       </c>
       <c r="AU67" t="n">
         <v>21</v>
       </c>
       <c r="AV67" t="n">
         <v>38</v>
-      </c>
-      <c r="AW67" t="inlineStr">
-        <is>
-          <t>Gray catbird</t>
-        </is>
       </c>
     </row>
     <row r="68">
@@ -9707,19 +9504,16 @@
           <t>Vireonidae</t>
         </is>
       </c>
-      <c r="AT68" t="n">
-        <v>67</v>
+      <c r="AT68" t="inlineStr">
+        <is>
+          <t>Warbling vireo</t>
+        </is>
       </c>
       <c r="AU68" t="n">
         <v>13</v>
       </c>
       <c r="AV68" t="n">
         <v>27</v>
-      </c>
-      <c r="AW68" t="inlineStr">
-        <is>
-          <t>Warbling vireo</t>
-        </is>
       </c>
     </row>
     <row r="69">
@@ -9836,19 +9630,16 @@
           <t>Vireonidae</t>
         </is>
       </c>
-      <c r="AT69" t="n">
-        <v>68</v>
+      <c r="AT69" t="inlineStr">
+        <is>
+          <t>Red-eyed vireo</t>
+        </is>
       </c>
       <c r="AU69" t="n">
         <v>13</v>
       </c>
       <c r="AV69" t="n">
         <v>27</v>
-      </c>
-      <c r="AW69" t="inlineStr">
-        <is>
-          <t>Red-eyed vireo</t>
-        </is>
       </c>
     </row>
     <row r="70">
@@ -9967,19 +9758,16 @@
           <t>Troglodytidae</t>
         </is>
       </c>
-      <c r="AT70" t="n">
-        <v>69</v>
+      <c r="AT70" t="inlineStr">
+        <is>
+          <t>Carolina wren</t>
+        </is>
       </c>
       <c r="AU70" t="n">
         <v>18</v>
       </c>
       <c r="AV70" t="n">
         <v>34</v>
-      </c>
-      <c r="AW70" t="inlineStr">
-        <is>
-          <t>Carolina wren</t>
-        </is>
       </c>
     </row>
     <row r="71">
@@ -10096,19 +9884,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT71" t="n">
-        <v>70</v>
+      <c r="AT71" t="inlineStr">
+        <is>
+          <t>Song sparrow</t>
+        </is>
       </c>
       <c r="AU71" t="n">
         <v>24</v>
       </c>
       <c r="AV71" t="n">
         <v>44</v>
-      </c>
-      <c r="AW71" t="inlineStr">
-        <is>
-          <t>Song sparrow</t>
-        </is>
       </c>
     </row>
     <row r="72">
@@ -10227,19 +10012,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT72" t="n">
-        <v>71</v>
+      <c r="AT72" t="inlineStr">
+        <is>
+          <t>White-throated sparrow</t>
+        </is>
       </c>
       <c r="AU72" t="n">
         <v>24</v>
       </c>
       <c r="AV72" t="n">
         <v>44</v>
-      </c>
-      <c r="AW72" t="inlineStr">
-        <is>
-          <t>White-throated sparrow</t>
-        </is>
       </c>
     </row>
     <row r="73">
@@ -10368,19 +10150,16 @@
           <t>Cardinalidae</t>
         </is>
       </c>
-      <c r="AT73" t="n">
-        <v>72</v>
+      <c r="AT73" t="inlineStr">
+        <is>
+          <t>Indigo bunting</t>
+        </is>
       </c>
       <c r="AU73" t="n">
         <v>27</v>
       </c>
       <c r="AV73" t="n">
         <v>47</v>
-      </c>
-      <c r="AW73" t="inlineStr">
-        <is>
-          <t>Indigo bunting</t>
-        </is>
       </c>
     </row>
     <row r="74">
@@ -10497,19 +10276,16 @@
           <t>Parulidae</t>
         </is>
       </c>
-      <c r="AT74" t="n">
-        <v>73</v>
+      <c r="AT74" t="inlineStr">
+        <is>
+          <t>Tennessee warbler</t>
+        </is>
       </c>
       <c r="AU74" t="n">
         <v>26</v>
       </c>
       <c r="AV74" t="n">
         <v>46</v>
-      </c>
-      <c r="AW74" t="inlineStr">
-        <is>
-          <t>Tennessee warbler</t>
-        </is>
       </c>
     </row>
     <row r="75">
@@ -10626,19 +10402,16 @@
           <t>Parulidae</t>
         </is>
       </c>
-      <c r="AT75" t="n">
-        <v>74</v>
+      <c r="AT75" t="inlineStr">
+        <is>
+          <t>American redstart</t>
+        </is>
       </c>
       <c r="AU75" t="n">
         <v>26</v>
       </c>
       <c r="AV75" t="n">
         <v>46</v>
-      </c>
-      <c r="AW75" t="inlineStr">
-        <is>
-          <t>American redstart</t>
-        </is>
       </c>
     </row>
     <row r="76">
@@ -10755,19 +10528,16 @@
           <t>Parulidae</t>
         </is>
       </c>
-      <c r="AT76" t="n">
-        <v>75</v>
+      <c r="AT76" t="inlineStr">
+        <is>
+          <t>Magnolia warbler</t>
+        </is>
       </c>
       <c r="AU76" t="n">
         <v>26</v>
       </c>
       <c r="AV76" t="n">
         <v>46</v>
-      </c>
-      <c r="AW76" t="inlineStr">
-        <is>
-          <t>Magnolia warbler</t>
-        </is>
       </c>
     </row>
     <row r="77">
@@ -10884,19 +10654,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT77" t="n">
-        <v>76</v>
+      <c r="AT77" t="inlineStr">
+        <is>
+          <t>White-throated sparrow</t>
+        </is>
       </c>
       <c r="AU77" t="n">
         <v>24</v>
       </c>
       <c r="AV77" t="n">
         <v>44</v>
-      </c>
-      <c r="AW77" t="inlineStr">
-        <is>
-          <t>White-throated sparrow</t>
-        </is>
       </c>
     </row>
     <row r="78">
@@ -11027,19 +10794,16 @@
           <t>Troglodytidae</t>
         </is>
       </c>
-      <c r="AT78" t="n">
-        <v>77</v>
+      <c r="AT78" t="inlineStr">
+        <is>
+          <t>Carolina wren</t>
+        </is>
       </c>
       <c r="AU78" t="n">
         <v>18</v>
       </c>
       <c r="AV78" t="n">
         <v>34</v>
-      </c>
-      <c r="AW78" t="inlineStr">
-        <is>
-          <t>Carolina wren</t>
-        </is>
       </c>
     </row>
     <row r="79">
@@ -11176,19 +10940,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT79" t="n">
-        <v>78</v>
+      <c r="AT79" t="inlineStr">
+        <is>
+          <t>Chipping sparrow</t>
+        </is>
       </c>
       <c r="AU79" t="n">
         <v>24</v>
       </c>
       <c r="AV79" t="n">
         <v>44</v>
-      </c>
-      <c r="AW79" t="inlineStr">
-        <is>
-          <t>Chipping sparrow</t>
-        </is>
       </c>
     </row>
     <row r="80">
@@ -11331,19 +11092,16 @@
           <t>Cardinalidae</t>
         </is>
       </c>
-      <c r="AT80" t="n">
-        <v>79</v>
+      <c r="AT80" t="inlineStr">
+        <is>
+          <t>Indigo bunting</t>
+        </is>
       </c>
       <c r="AU80" t="n">
         <v>27</v>
       </c>
       <c r="AV80" t="n">
         <v>47</v>
-      </c>
-      <c r="AW80" t="inlineStr">
-        <is>
-          <t>Indigo bunting</t>
-        </is>
       </c>
     </row>
     <row r="81">
@@ -11482,19 +11240,16 @@
           <t>Parulidae</t>
         </is>
       </c>
-      <c r="AT81" t="n">
-        <v>80</v>
+      <c r="AT81" t="inlineStr">
+        <is>
+          <t>Common yellowthroat</t>
+        </is>
       </c>
       <c r="AU81" t="n">
         <v>26</v>
       </c>
       <c r="AV81" t="n">
         <v>46</v>
-      </c>
-      <c r="AW81" t="inlineStr">
-        <is>
-          <t>Common yellowthroat</t>
-        </is>
       </c>
     </row>
     <row r="82">
@@ -11613,19 +11368,16 @@
           <t>Corvidae</t>
         </is>
       </c>
-      <c r="AT82" t="n">
-        <v>81</v>
+      <c r="AT82" t="inlineStr">
+        <is>
+          <t>Common raven</t>
+        </is>
       </c>
       <c r="AU82" t="n">
         <v>14</v>
       </c>
       <c r="AV82" t="n">
         <v>28</v>
-      </c>
-      <c r="AW82" t="inlineStr">
-        <is>
-          <t>Common raven</t>
-        </is>
       </c>
     </row>
     <row r="83">
@@ -11754,19 +11506,16 @@
           <t>Cardinalidae</t>
         </is>
       </c>
-      <c r="AT83" t="n">
-        <v>82</v>
+      <c r="AT83" t="inlineStr">
+        <is>
+          <t>Northern cardinal</t>
+        </is>
       </c>
       <c r="AU83" t="n">
         <v>27</v>
       </c>
       <c r="AV83" t="n">
         <v>47</v>
-      </c>
-      <c r="AW83" t="inlineStr">
-        <is>
-          <t>Northern cardinal</t>
-        </is>
       </c>
     </row>
     <row r="84">
@@ -11895,19 +11644,16 @@
           <t>Troglodytidae</t>
         </is>
       </c>
-      <c r="AT84" t="n">
-        <v>83</v>
+      <c r="AT84" t="inlineStr">
+        <is>
+          <t>Marsh wren</t>
+        </is>
       </c>
       <c r="AU84" t="n">
         <v>18</v>
       </c>
       <c r="AV84" t="n">
         <v>34</v>
-      </c>
-      <c r="AW84" t="inlineStr">
-        <is>
-          <t>Marsh wren</t>
-        </is>
       </c>
     </row>
     <row r="85">
@@ -12028,19 +11774,16 @@
           <t>Mimidae</t>
         </is>
       </c>
-      <c r="AT85" t="n">
-        <v>84</v>
+      <c r="AT85" t="inlineStr">
+        <is>
+          <t>Brown thrasher</t>
+        </is>
       </c>
       <c r="AU85" t="n">
         <v>21</v>
       </c>
       <c r="AV85" t="n">
         <v>38</v>
-      </c>
-      <c r="AW85" t="inlineStr">
-        <is>
-          <t>Brown thrasher</t>
-        </is>
       </c>
     </row>
     <row r="86">
@@ -12155,19 +11898,16 @@
           <t>Mimidae</t>
         </is>
       </c>
-      <c r="AT86" t="n">
-        <v>85</v>
+      <c r="AT86" t="inlineStr">
+        <is>
+          <t>Northern mockingbird</t>
+        </is>
       </c>
       <c r="AU86" t="n">
         <v>21</v>
       </c>
       <c r="AV86" t="n">
         <v>38</v>
-      </c>
-      <c r="AW86" t="inlineStr">
-        <is>
-          <t>Northern mockingbird</t>
-        </is>
       </c>
     </row>
     <row r="87">
@@ -12284,19 +12024,16 @@
           <t>Paridae</t>
         </is>
       </c>
-      <c r="AT87" t="n">
-        <v>86</v>
+      <c r="AT87" t="inlineStr">
+        <is>
+          <t>Oak titmouse</t>
+        </is>
       </c>
       <c r="AU87" t="n">
         <v>16</v>
       </c>
       <c r="AV87" t="n">
         <v>31</v>
-      </c>
-      <c r="AW87" t="inlineStr">
-        <is>
-          <t>Oak titmouse</t>
-        </is>
       </c>
     </row>
     <row r="88">
@@ -12439,19 +12176,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT88" t="n">
-        <v>87</v>
+      <c r="AT88" t="inlineStr">
+        <is>
+          <t>White-crowned sparrow</t>
+        </is>
       </c>
       <c r="AU88" t="n">
         <v>24</v>
       </c>
       <c r="AV88" t="n">
         <v>44</v>
-      </c>
-      <c r="AW88" t="inlineStr">
-        <is>
-          <t>White-crowned sparrow</t>
-        </is>
       </c>
     </row>
     <row r="89">
@@ -12574,19 +12308,16 @@
           <t>Paridae</t>
         </is>
       </c>
-      <c r="AT89" t="n">
-        <v>88</v>
+      <c r="AT89" t="inlineStr">
+        <is>
+          <t>Black-capped chickadee</t>
+        </is>
       </c>
       <c r="AU89" t="n">
         <v>16</v>
       </c>
       <c r="AV89" t="n">
         <v>31</v>
-      </c>
-      <c r="AW89" t="inlineStr">
-        <is>
-          <t>Black-capped chickadee</t>
-        </is>
       </c>
     </row>
     <row r="90">
@@ -12725,19 +12456,16 @@
           <t>Cardinalidae</t>
         </is>
       </c>
-      <c r="AT90" t="n">
-        <v>89</v>
+      <c r="AT90" t="inlineStr">
+        <is>
+          <t>Dickcissel</t>
+        </is>
       </c>
       <c r="AU90" t="n">
         <v>27</v>
       </c>
       <c r="AV90" t="n">
         <v>47</v>
-      </c>
-      <c r="AW90" t="inlineStr">
-        <is>
-          <t>Dickcissel</t>
-        </is>
       </c>
     </row>
     <row r="91">
@@ -12872,19 +12600,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT91" t="n">
-        <v>90</v>
+      <c r="AT91" t="inlineStr">
+        <is>
+          <t>American tree sparrow</t>
+        </is>
       </c>
       <c r="AU91" t="n">
         <v>24</v>
       </c>
       <c r="AV91" t="n">
         <v>44</v>
-      </c>
-      <c r="AW91" t="inlineStr">
-        <is>
-          <t>American tree sparrow</t>
-        </is>
       </c>
     </row>
     <row r="92">
@@ -13015,19 +12740,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT92" t="n">
-        <v>91</v>
+      <c r="AT92" t="inlineStr">
+        <is>
+          <t>Fox sparrow</t>
+        </is>
       </c>
       <c r="AU92" t="n">
         <v>24</v>
       </c>
       <c r="AV92" t="n">
         <v>44</v>
-      </c>
-      <c r="AW92" t="inlineStr">
-        <is>
-          <t>Fox sparrow</t>
-        </is>
       </c>
     </row>
     <row r="93">
@@ -13154,19 +12876,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT93" t="n">
-        <v>92</v>
+      <c r="AT93" t="inlineStr">
+        <is>
+          <t>Vesper sparrow</t>
+        </is>
       </c>
       <c r="AU93" t="n">
         <v>24</v>
       </c>
       <c r="AV93" t="n">
         <v>44</v>
-      </c>
-      <c r="AW93" t="inlineStr">
-        <is>
-          <t>Vesper sparrow</t>
-        </is>
       </c>
     </row>
     <row r="94">
@@ -13301,19 +13020,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT94" t="n">
-        <v>93</v>
+      <c r="AT94" t="inlineStr">
+        <is>
+          <t>White-throated sparrow</t>
+        </is>
       </c>
       <c r="AU94" t="n">
         <v>24</v>
       </c>
       <c r="AV94" t="n">
         <v>44</v>
-      </c>
-      <c r="AW94" t="inlineStr">
-        <is>
-          <t>White-throated sparrow</t>
-        </is>
       </c>
     </row>
     <row r="95">
@@ -13440,19 +13156,16 @@
           <t>Icteridae</t>
         </is>
       </c>
-      <c r="AT95" t="n">
-        <v>94</v>
+      <c r="AT95" t="inlineStr">
+        <is>
+          <t>Bobolink</t>
+        </is>
       </c>
       <c r="AU95" t="n">
         <v>25</v>
       </c>
       <c r="AV95" t="n">
         <v>45</v>
-      </c>
-      <c r="AW95" t="inlineStr">
-        <is>
-          <t>Bobolink</t>
-        </is>
       </c>
     </row>
     <row r="96">
@@ -13585,19 +13298,16 @@
           <t>Trochilidae</t>
         </is>
       </c>
-      <c r="AT96" t="n">
-        <v>95</v>
+      <c r="AT96" t="inlineStr">
+        <is>
+          <t>Anna's hummingbird</t>
+        </is>
       </c>
       <c r="AU96" t="n">
         <v>5</v>
       </c>
       <c r="AV96" t="n">
         <v>9</v>
-      </c>
-      <c r="AW96" t="inlineStr">
-        <is>
-          <t>Anna's hummingbird</t>
-        </is>
       </c>
     </row>
     <row r="97">
@@ -13722,19 +13432,16 @@
           <t>Icteridae</t>
         </is>
       </c>
-      <c r="AT97" t="n">
-        <v>96</v>
+      <c r="AT97" t="inlineStr">
+        <is>
+          <t>Red-winged blackbird</t>
+        </is>
       </c>
       <c r="AU97" t="n">
         <v>25</v>
       </c>
       <c r="AV97" t="n">
         <v>45</v>
-      </c>
-      <c r="AW97" t="inlineStr">
-        <is>
-          <t>Red-winged blackbird</t>
-        </is>
       </c>
     </row>
     <row r="98">
@@ -13853,19 +13560,16 @@
           <t>Icteridae</t>
         </is>
       </c>
-      <c r="AT98" t="n">
-        <v>97</v>
+      <c r="AT98" t="inlineStr">
+        <is>
+          <t>Brown-headed cowbird</t>
+        </is>
       </c>
       <c r="AU98" t="n">
         <v>25</v>
       </c>
       <c r="AV98" t="n">
         <v>45</v>
-      </c>
-      <c r="AW98" t="inlineStr">
-        <is>
-          <t>Brown-headed cowbird</t>
-        </is>
       </c>
     </row>
     <row r="99">
@@ -13982,19 +13686,16 @@
           <t>Fringillidae</t>
         </is>
       </c>
-      <c r="AT99" t="n">
-        <v>98</v>
+      <c r="AT99" t="inlineStr">
+        <is>
+          <t>Red crossbill</t>
+        </is>
       </c>
       <c r="AU99" t="n">
         <v>23</v>
       </c>
       <c r="AV99" t="n">
         <v>42</v>
-      </c>
-      <c r="AW99" t="inlineStr">
-        <is>
-          <t>Red crossbill</t>
-        </is>
       </c>
     </row>
     <row r="100">
@@ -14133,19 +13834,16 @@
           <t>Mimidae</t>
         </is>
       </c>
-      <c r="AT100" t="n">
-        <v>99</v>
+      <c r="AT100" t="inlineStr">
+        <is>
+          <t>Northern mockingbird</t>
+        </is>
       </c>
       <c r="AU100" t="n">
         <v>21</v>
       </c>
       <c r="AV100" t="n">
         <v>38</v>
-      </c>
-      <c r="AW100" t="inlineStr">
-        <is>
-          <t>Northern mockingbird</t>
-        </is>
       </c>
     </row>
     <row r="101">
@@ -14266,19 +13964,16 @@
           <t>Sturnidae</t>
         </is>
       </c>
-      <c r="AT101" t="n">
-        <v>100</v>
+      <c r="AT101" t="inlineStr">
+        <is>
+          <t>European starling</t>
+        </is>
       </c>
       <c r="AU101" t="n">
         <v>21</v>
       </c>
       <c r="AV101" t="n">
         <v>39</v>
-      </c>
-      <c r="AW101" t="inlineStr">
-        <is>
-          <t>European starling</t>
-        </is>
       </c>
     </row>
     <row r="102">
@@ -14403,19 +14098,16 @@
           <t>Vireonidae</t>
         </is>
       </c>
-      <c r="AT102" t="n">
-        <v>101</v>
+      <c r="AT102" t="inlineStr">
+        <is>
+          <t>White-eyed vireo</t>
+        </is>
       </c>
       <c r="AU102" t="n">
         <v>13</v>
       </c>
       <c r="AV102" t="n">
         <v>27</v>
-      </c>
-      <c r="AW102" t="inlineStr">
-        <is>
-          <t>White-eyed vireo</t>
-        </is>
       </c>
     </row>
     <row r="103">
@@ -14536,19 +14228,16 @@
           <t>Corvidae</t>
         </is>
       </c>
-      <c r="AT103" t="n">
-        <v>102</v>
+      <c r="AT103" t="inlineStr">
+        <is>
+          <t>Steller's jay</t>
+        </is>
       </c>
       <c r="AU103" t="n">
         <v>14</v>
       </c>
       <c r="AV103" t="n">
         <v>28</v>
-      </c>
-      <c r="AW103" t="inlineStr">
-        <is>
-          <t>Steller's jay</t>
-        </is>
       </c>
     </row>
     <row r="104">
@@ -14671,19 +14360,16 @@
           <t>Corvidae</t>
         </is>
       </c>
-      <c r="AT104" t="n">
-        <v>103</v>
+      <c r="AT104" t="inlineStr">
+        <is>
+          <t>Blue jay</t>
+        </is>
       </c>
       <c r="AU104" t="n">
         <v>14</v>
       </c>
       <c r="AV104" t="n">
         <v>28</v>
-      </c>
-      <c r="AW104" t="inlineStr">
-        <is>
-          <t>Blue jay</t>
-        </is>
       </c>
     </row>
     <row r="105">
@@ -14800,19 +14486,16 @@
           <t>Tyrannidae</t>
         </is>
       </c>
-      <c r="AT105" t="n">
-        <v>104</v>
+      <c r="AT105" t="inlineStr">
+        <is>
+          <t>Least flycatcher</t>
+        </is>
       </c>
       <c r="AU105" t="n">
         <v>12</v>
       </c>
       <c r="AV105" t="n">
         <v>25</v>
-      </c>
-      <c r="AW105" t="inlineStr">
-        <is>
-          <t>Least flycatcher</t>
-        </is>
       </c>
     </row>
     <row r="106">
@@ -14937,19 +14620,16 @@
           <t>Passeridae</t>
         </is>
       </c>
-      <c r="AT106" t="n">
-        <v>105</v>
+      <c r="AT106" t="inlineStr">
+        <is>
+          <t>House sparrow</t>
+        </is>
       </c>
       <c r="AU106" t="n">
         <v>22</v>
       </c>
       <c r="AV106" t="n">
         <v>41</v>
-      </c>
-      <c r="AW106" t="inlineStr">
-        <is>
-          <t>House sparrow</t>
-        </is>
       </c>
     </row>
     <row r="107">
@@ -15064,19 +14744,16 @@
           <t>Troglodytidae</t>
         </is>
       </c>
-      <c r="AT107" t="n">
-        <v>106</v>
+      <c r="AT107" t="inlineStr">
+        <is>
+          <t>Cactus wren</t>
+        </is>
       </c>
       <c r="AU107" t="n">
         <v>18</v>
       </c>
       <c r="AV107" t="n">
         <v>34</v>
-      </c>
-      <c r="AW107" t="inlineStr">
-        <is>
-          <t>Cactus wren</t>
-        </is>
       </c>
     </row>
     <row r="108">
@@ -15191,19 +14868,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT108" t="n">
-        <v>107</v>
+      <c r="AT108" t="inlineStr">
+        <is>
+          <t>Dark-eyed junco</t>
+        </is>
       </c>
       <c r="AU108" t="n">
         <v>24</v>
       </c>
       <c r="AV108" t="n">
         <v>44</v>
-      </c>
-      <c r="AW108" t="inlineStr">
-        <is>
-          <t>Dark-eyed junco</t>
-        </is>
       </c>
     </row>
     <row r="109">
@@ -15318,19 +14992,16 @@
           <t>Cardinalidae</t>
         </is>
       </c>
-      <c r="AT109" t="n">
-        <v>108</v>
+      <c r="AT109" t="inlineStr">
+        <is>
+          <t>Painted bunting</t>
+        </is>
       </c>
       <c r="AU109" t="n">
         <v>27</v>
       </c>
       <c r="AV109" t="n">
         <v>47</v>
-      </c>
-      <c r="AW109" t="inlineStr">
-        <is>
-          <t>Painted bunting</t>
-        </is>
       </c>
     </row>
     <row r="110">
@@ -15445,19 +15116,16 @@
           <t>Troglodytidae</t>
         </is>
       </c>
-      <c r="AT110" t="n">
-        <v>109</v>
+      <c r="AT110" t="inlineStr">
+        <is>
+          <t>House wren</t>
+        </is>
       </c>
       <c r="AU110" t="n">
         <v>18</v>
       </c>
       <c r="AV110" t="n">
         <v>34</v>
-      </c>
-      <c r="AW110" t="inlineStr">
-        <is>
-          <t>House wren</t>
-        </is>
       </c>
     </row>
     <row r="111">
@@ -15578,19 +15246,16 @@
           <t>Turdidae</t>
         </is>
       </c>
-      <c r="AT111" t="n">
-        <v>110</v>
+      <c r="AT111" t="inlineStr">
+        <is>
+          <t>Townsend's solitaire</t>
+        </is>
       </c>
       <c r="AU111" t="n">
         <v>20</v>
       </c>
       <c r="AV111" t="n">
         <v>37</v>
-      </c>
-      <c r="AW111" t="inlineStr">
-        <is>
-          <t>Townsend's solitaire</t>
-        </is>
       </c>
     </row>
     <row r="112">
@@ -15709,19 +15374,16 @@
           <t>Mimidae</t>
         </is>
       </c>
-      <c r="AT112" t="n">
-        <v>111</v>
+      <c r="AT112" t="inlineStr">
+        <is>
+          <t>Sage thrasher</t>
+        </is>
       </c>
       <c r="AU112" t="n">
         <v>21</v>
       </c>
       <c r="AV112" t="n">
         <v>38</v>
-      </c>
-      <c r="AW112" t="inlineStr">
-        <is>
-          <t>Sage thrasher</t>
-        </is>
       </c>
     </row>
     <row r="113">
@@ -15840,19 +15502,16 @@
           <t>Tyrannidae</t>
         </is>
       </c>
-      <c r="AT113" t="n">
-        <v>112</v>
+      <c r="AT113" t="inlineStr">
+        <is>
+          <t>Olive-sided flycatcher</t>
+        </is>
       </c>
       <c r="AU113" t="n">
         <v>12</v>
       </c>
       <c r="AV113" t="n">
         <v>25</v>
-      </c>
-      <c r="AW113" t="inlineStr">
-        <is>
-          <t>Olive-sided flycatcher</t>
-        </is>
       </c>
     </row>
     <row r="114">
@@ -15967,19 +15626,16 @@
           <t>Tyrannidae</t>
         </is>
       </c>
-      <c r="AT114" t="n">
-        <v>113</v>
+      <c r="AT114" t="inlineStr">
+        <is>
+          <t>Black phoebe</t>
+        </is>
       </c>
       <c r="AU114" t="n">
         <v>12</v>
       </c>
       <c r="AV114" t="n">
         <v>25</v>
-      </c>
-      <c r="AW114" t="inlineStr">
-        <is>
-          <t>Black phoebe</t>
-        </is>
       </c>
     </row>
     <row r="115">
@@ -16100,19 +15756,16 @@
           <t>Tyrannidae</t>
         </is>
       </c>
-      <c r="AT115" t="n">
-        <v>114</v>
+      <c r="AT115" t="inlineStr">
+        <is>
+          <t>Say's phoebe</t>
+        </is>
       </c>
       <c r="AU115" t="n">
         <v>12</v>
       </c>
       <c r="AV115" t="n">
         <v>25</v>
-      </c>
-      <c r="AW115" t="inlineStr">
-        <is>
-          <t>Say's phoebe</t>
-        </is>
       </c>
     </row>
     <row r="116">
@@ -16231,19 +15884,16 @@
           <t>Regulidae</t>
         </is>
       </c>
-      <c r="AT116" t="n">
-        <v>115</v>
+      <c r="AT116" t="inlineStr">
+        <is>
+          <t>Ruby-crowned kinglet</t>
+        </is>
       </c>
       <c r="AU116" t="n">
         <v>19</v>
       </c>
       <c r="AV116" t="n">
         <v>35</v>
-      </c>
-      <c r="AW116" t="inlineStr">
-        <is>
-          <t>Ruby-crowned kinglet</t>
-        </is>
       </c>
     </row>
     <row r="117">
@@ -16362,19 +16012,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT117" t="n">
-        <v>116</v>
+      <c r="AT117" t="inlineStr">
+        <is>
+          <t>Savannah sparrow</t>
+        </is>
       </c>
       <c r="AU117" t="n">
         <v>24</v>
       </c>
       <c r="AV117" t="n">
         <v>44</v>
-      </c>
-      <c r="AW117" t="inlineStr">
-        <is>
-          <t>Savannah sparrow</t>
-        </is>
       </c>
     </row>
     <row r="118">
@@ -16491,19 +16138,16 @@
           <t>Paridae</t>
         </is>
       </c>
-      <c r="AT118" t="n">
-        <v>117</v>
+      <c r="AT118" t="inlineStr">
+        <is>
+          <t>Tufted titmouse</t>
+        </is>
       </c>
       <c r="AU118" t="n">
         <v>16</v>
       </c>
       <c r="AV118" t="n">
         <v>31</v>
-      </c>
-      <c r="AW118" t="inlineStr">
-        <is>
-          <t>Tufted titmouse</t>
-        </is>
       </c>
     </row>
     <row r="119">
@@ -16622,19 +16266,16 @@
           <t>Paridae</t>
         </is>
       </c>
-      <c r="AT119" t="n">
-        <v>118</v>
+      <c r="AT119" t="inlineStr">
+        <is>
+          <t>Carolina chickadee</t>
+        </is>
       </c>
       <c r="AU119" t="n">
         <v>16</v>
       </c>
       <c r="AV119" t="n">
         <v>31</v>
-      </c>
-      <c r="AW119" t="inlineStr">
-        <is>
-          <t>Carolina chickadee</t>
-        </is>
       </c>
     </row>
     <row r="120">
@@ -16757,19 +16398,16 @@
           <t>Turdidae</t>
         </is>
       </c>
-      <c r="AT120" t="n">
-        <v>119</v>
+      <c r="AT120" t="inlineStr">
+        <is>
+          <t>Hermit thrush</t>
+        </is>
       </c>
       <c r="AU120" t="n">
         <v>20</v>
       </c>
       <c r="AV120" t="n">
         <v>37</v>
-      </c>
-      <c r="AW120" t="inlineStr">
-        <is>
-          <t>Hermit thrush</t>
-        </is>
       </c>
     </row>
     <row r="121">
@@ -16894,19 +16532,16 @@
           <t>Cardinalidae</t>
         </is>
       </c>
-      <c r="AT121" t="n">
-        <v>120</v>
+      <c r="AT121" t="inlineStr">
+        <is>
+          <t>Northern cardinal</t>
+        </is>
       </c>
       <c r="AU121" t="n">
         <v>27</v>
       </c>
       <c r="AV121" t="n">
         <v>47</v>
-      </c>
-      <c r="AW121" t="inlineStr">
-        <is>
-          <t>Northern cardinal</t>
-        </is>
       </c>
     </row>
     <row r="122">
@@ -17023,19 +16658,16 @@
           <t>Troglodytidae</t>
         </is>
       </c>
-      <c r="AT122" t="n">
-        <v>121</v>
+      <c r="AT122" t="inlineStr">
+        <is>
+          <t>Rock wren</t>
+        </is>
       </c>
       <c r="AU122" t="n">
         <v>18</v>
       </c>
       <c r="AV122" t="n">
         <v>34</v>
-      </c>
-      <c r="AW122" t="inlineStr">
-        <is>
-          <t>Rock wren</t>
-        </is>
       </c>
     </row>
     <row r="123">
@@ -17156,19 +16788,16 @@
           <t>Troglodytidae</t>
         </is>
       </c>
-      <c r="AT123" t="n">
-        <v>122</v>
+      <c r="AT123" t="inlineStr">
+        <is>
+          <t>Sedge wren</t>
+        </is>
       </c>
       <c r="AU123" t="n">
         <v>18</v>
       </c>
       <c r="AV123" t="n">
         <v>34</v>
-      </c>
-      <c r="AW123" t="inlineStr">
-        <is>
-          <t>Sedge wren</t>
-        </is>
       </c>
     </row>
     <row r="124">
@@ -17301,19 +16930,16 @@
           <t>Mimidae</t>
         </is>
       </c>
-      <c r="AT124" t="n">
-        <v>123</v>
+      <c r="AT124" t="inlineStr">
+        <is>
+          <t>Brown thrasher</t>
+        </is>
       </c>
       <c r="AU124" t="n">
         <v>21</v>
       </c>
       <c r="AV124" t="n">
         <v>38</v>
-      </c>
-      <c r="AW124" t="inlineStr">
-        <is>
-          <t>Brown thrasher</t>
-        </is>
       </c>
     </row>
     <row r="125">
@@ -17446,19 +17072,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT125" t="n">
-        <v>124</v>
+      <c r="AT125" t="inlineStr">
+        <is>
+          <t>Eastern towhee</t>
+        </is>
       </c>
       <c r="AU125" t="n">
         <v>24</v>
       </c>
       <c r="AV125" t="n">
         <v>44</v>
-      </c>
-      <c r="AW125" t="inlineStr">
-        <is>
-          <t>Eastern towhee</t>
-        </is>
       </c>
     </row>
     <row r="126">
@@ -17573,19 +17196,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT126" t="n">
-        <v>125</v>
+      <c r="AT126" t="inlineStr">
+        <is>
+          <t>Black-throated sparrow</t>
+        </is>
       </c>
       <c r="AU126" t="n">
         <v>24</v>
       </c>
       <c r="AV126" t="n">
         <v>44</v>
-      </c>
-      <c r="AW126" t="inlineStr">
-        <is>
-          <t>Black-throated sparrow</t>
-        </is>
       </c>
     </row>
     <row r="127">
@@ -17700,19 +17320,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT127" t="n">
-        <v>126</v>
+      <c r="AT127" t="inlineStr">
+        <is>
+          <t>Bachman's sparrow</t>
+        </is>
       </c>
       <c r="AU127" t="n">
         <v>24</v>
       </c>
       <c r="AV127" t="n">
         <v>44</v>
-      </c>
-      <c r="AW127" t="inlineStr">
-        <is>
-          <t>Bachman's sparrow</t>
-        </is>
       </c>
     </row>
     <row r="128">
@@ -17829,19 +17446,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT128" t="n">
-        <v>127</v>
+      <c r="AT128" t="inlineStr">
+        <is>
+          <t>Cassin's sparrow</t>
+        </is>
       </c>
       <c r="AU128" t="n">
         <v>24</v>
       </c>
       <c r="AV128" t="n">
         <v>44</v>
-      </c>
-      <c r="AW128" t="inlineStr">
-        <is>
-          <t>Cassin's sparrow</t>
-        </is>
       </c>
     </row>
     <row r="129">
@@ -17958,19 +17572,16 @@
           <t>Vireonidae</t>
         </is>
       </c>
-      <c r="AT129" t="n">
-        <v>128</v>
+      <c r="AT129" t="inlineStr">
+        <is>
+          <t>Red-eyed vireo</t>
+        </is>
       </c>
       <c r="AU129" t="n">
         <v>13</v>
       </c>
       <c r="AV129" t="n">
         <v>27</v>
-      </c>
-      <c r="AW129" t="inlineStr">
-        <is>
-          <t>Red-eyed vireo</t>
-        </is>
       </c>
     </row>
     <row r="130">
@@ -18091,19 +17702,16 @@
           <t>Vireonidae</t>
         </is>
       </c>
-      <c r="AT130" t="n">
-        <v>129</v>
+      <c r="AT130" t="inlineStr">
+        <is>
+          <t>Philadelphia vireo</t>
+        </is>
       </c>
       <c r="AU130" t="n">
         <v>13</v>
       </c>
       <c r="AV130" t="n">
         <v>27</v>
-      </c>
-      <c r="AW130" t="inlineStr">
-        <is>
-          <t>Philadelphia vireo</t>
-        </is>
       </c>
     </row>
     <row r="131">
@@ -18222,19 +17830,16 @@
           <t>Icteridae</t>
         </is>
       </c>
-      <c r="AT131" t="n">
-        <v>130</v>
+      <c r="AT131" t="inlineStr">
+        <is>
+          <t>Yellow-breasted chat</t>
+        </is>
       </c>
       <c r="AU131" t="n">
         <v>25</v>
       </c>
       <c r="AV131" t="n">
         <v>45</v>
-      </c>
-      <c r="AW131" t="inlineStr">
-        <is>
-          <t>Yellow-breasted chat</t>
-        </is>
       </c>
     </row>
     <row r="132">
@@ -18353,19 +17958,16 @@
           <t>Vireonidae</t>
         </is>
       </c>
-      <c r="AT132" t="n">
-        <v>131</v>
+      <c r="AT132" t="inlineStr">
+        <is>
+          <t>Yellow-throated vireo</t>
+        </is>
       </c>
       <c r="AU132" t="n">
         <v>13</v>
       </c>
       <c r="AV132" t="n">
         <v>27</v>
-      </c>
-      <c r="AW132" t="inlineStr">
-        <is>
-          <t>Yellow-throated vireo</t>
-        </is>
       </c>
     </row>
     <row r="133">
@@ -18482,19 +18084,16 @@
           <t>Turdidae</t>
         </is>
       </c>
-      <c r="AT133" t="n">
-        <v>132</v>
+      <c r="AT133" t="inlineStr">
+        <is>
+          <t>American robin</t>
+        </is>
       </c>
       <c r="AU133" t="n">
         <v>20</v>
       </c>
       <c r="AV133" t="n">
         <v>37</v>
-      </c>
-      <c r="AW133" t="inlineStr">
-        <is>
-          <t>American robin</t>
-        </is>
       </c>
     </row>
     <row r="134">
@@ -18621,19 +18220,16 @@
           <t>Turdidae</t>
         </is>
       </c>
-      <c r="AT134" t="n">
-        <v>133</v>
+      <c r="AT134" t="inlineStr">
+        <is>
+          <t>Wood thrush</t>
+        </is>
       </c>
       <c r="AU134" t="n">
         <v>20</v>
       </c>
       <c r="AV134" t="n">
         <v>37</v>
-      </c>
-      <c r="AW134" t="inlineStr">
-        <is>
-          <t>Wood thrush</t>
-        </is>
       </c>
     </row>
     <row r="135">
@@ -18750,19 +18346,16 @@
           <t>Bombycillidae</t>
         </is>
       </c>
-      <c r="AT135" t="n">
-        <v>134</v>
+      <c r="AT135" t="inlineStr">
+        <is>
+          <t>Cedar waxwing</t>
+        </is>
       </c>
       <c r="AU135" t="n">
         <v>22</v>
       </c>
       <c r="AV135" t="n">
         <v>40</v>
-      </c>
-      <c r="AW135" t="inlineStr">
-        <is>
-          <t>Cedar waxwing</t>
-        </is>
       </c>
     </row>
     <row r="136">
@@ -18877,19 +18470,16 @@
           <t>Fringillidae</t>
         </is>
       </c>
-      <c r="AT136" t="n">
-        <v>135</v>
+      <c r="AT136" t="inlineStr">
+        <is>
+          <t>Evening grosbeak</t>
+        </is>
       </c>
       <c r="AU136" t="n">
         <v>23</v>
       </c>
       <c r="AV136" t="n">
         <v>42</v>
-      </c>
-      <c r="AW136" t="inlineStr">
-        <is>
-          <t>Evening grosbeak</t>
-        </is>
       </c>
     </row>
     <row r="137">
@@ -19008,19 +18598,16 @@
           <t>Corvidae</t>
         </is>
       </c>
-      <c r="AT137" t="n">
-        <v>136</v>
+      <c r="AT137" t="inlineStr">
+        <is>
+          <t>American crow</t>
+        </is>
       </c>
       <c r="AU137" t="n">
         <v>14</v>
       </c>
       <c r="AV137" t="n">
         <v>28</v>
-      </c>
-      <c r="AW137" t="inlineStr">
-        <is>
-          <t>American crow</t>
-        </is>
       </c>
     </row>
     <row r="138">
@@ -19137,19 +18724,16 @@
           <t>Corvidae</t>
         </is>
       </c>
-      <c r="AT138" t="n">
-        <v>137</v>
+      <c r="AT138" t="inlineStr">
+        <is>
+          <t>Pinyon jay</t>
+        </is>
       </c>
       <c r="AU138" t="n">
         <v>14</v>
       </c>
       <c r="AV138" t="n">
         <v>28</v>
-      </c>
-      <c r="AW138" t="inlineStr">
-        <is>
-          <t>Pinyon jay</t>
-        </is>
       </c>
     </row>
     <row r="139">
@@ -19268,19 +18852,16 @@
           <t>Paridae</t>
         </is>
       </c>
-      <c r="AT139" t="n">
-        <v>138</v>
+      <c r="AT139" t="inlineStr">
+        <is>
+          <t>Chestnut-backed chickadee</t>
+        </is>
       </c>
       <c r="AU139" t="n">
         <v>16</v>
       </c>
       <c r="AV139" t="n">
         <v>31</v>
-      </c>
-      <c r="AW139" t="inlineStr">
-        <is>
-          <t>Chestnut-backed chickadee</t>
-        </is>
       </c>
     </row>
     <row r="140">
@@ -19397,19 +18978,16 @@
           <t>Aegithalidae</t>
         </is>
       </c>
-      <c r="AT140" t="n">
-        <v>139</v>
+      <c r="AT140" t="inlineStr">
+        <is>
+          <t>Bushtit</t>
+        </is>
       </c>
       <c r="AU140" t="n">
         <v>17</v>
       </c>
       <c r="AV140" t="n">
         <v>32</v>
-      </c>
-      <c r="AW140" t="inlineStr">
-        <is>
-          <t>Bushtit</t>
-        </is>
       </c>
     </row>
     <row r="141">
@@ -19524,19 +19102,16 @@
           <t>Picidae</t>
         </is>
       </c>
-      <c r="AT141" t="n">
-        <v>140</v>
+      <c r="AT141" t="inlineStr">
+        <is>
+          <t>Pileated woodpecker</t>
+        </is>
       </c>
       <c r="AU141" t="n">
         <v>11</v>
       </c>
       <c r="AV141" t="n">
         <v>23</v>
-      </c>
-      <c r="AW141" t="inlineStr">
-        <is>
-          <t>Pileated woodpecker</t>
-        </is>
       </c>
     </row>
     <row r="142">
@@ -19651,19 +19226,16 @@
           <t>Turdidae</t>
         </is>
       </c>
-      <c r="AT142" t="n">
-        <v>141</v>
+      <c r="AT142" t="inlineStr">
+        <is>
+          <t>Wood thrush</t>
+        </is>
       </c>
       <c r="AU142" t="n">
         <v>20</v>
       </c>
       <c r="AV142" t="n">
         <v>37</v>
-      </c>
-      <c r="AW142" t="inlineStr">
-        <is>
-          <t>Wood thrush</t>
-        </is>
       </c>
     </row>
     <row r="143">
@@ -19778,19 +19350,16 @@
           <t>Icteridae</t>
         </is>
       </c>
-      <c r="AT143" t="n">
-        <v>142</v>
+      <c r="AT143" t="inlineStr">
+        <is>
+          <t>Great-tailed grackle</t>
+        </is>
       </c>
       <c r="AU143" t="n">
         <v>25</v>
       </c>
       <c r="AV143" t="n">
         <v>45</v>
-      </c>
-      <c r="AW143" t="inlineStr">
-        <is>
-          <t>Great-tailed grackle</t>
-        </is>
       </c>
     </row>
     <row r="144">
@@ -19905,19 +19474,16 @@
           <t>Corvidae</t>
         </is>
       </c>
-      <c r="AT144" t="n">
-        <v>143</v>
+      <c r="AT144" t="inlineStr">
+        <is>
+          <t>Blue jay</t>
+        </is>
       </c>
       <c r="AU144" t="n">
         <v>14</v>
       </c>
       <c r="AV144" t="n">
         <v>28</v>
-      </c>
-      <c r="AW144" t="inlineStr">
-        <is>
-          <t>Blue jay</t>
-        </is>
       </c>
     </row>
     <row r="145">
@@ -20032,19 +19598,16 @@
           <t>Turdidae</t>
         </is>
       </c>
-      <c r="AT145" t="n">
-        <v>144</v>
+      <c r="AT145" t="inlineStr">
+        <is>
+          <t>Swainson's thrush</t>
+        </is>
       </c>
       <c r="AU145" t="n">
         <v>20</v>
       </c>
       <c r="AV145" t="n">
         <v>37</v>
-      </c>
-      <c r="AW145" t="inlineStr">
-        <is>
-          <t>Swainson's thrush</t>
-        </is>
       </c>
     </row>
     <row r="146">
@@ -20161,19 +19724,16 @@
           <t>Turdidae</t>
         </is>
       </c>
-      <c r="AT146" t="n">
-        <v>145</v>
+      <c r="AT146" t="inlineStr">
+        <is>
+          <t>Veery</t>
+        </is>
       </c>
       <c r="AU146" t="n">
         <v>20</v>
       </c>
       <c r="AV146" t="n">
         <v>37</v>
-      </c>
-      <c r="AW146" t="inlineStr">
-        <is>
-          <t>Veery</t>
-        </is>
       </c>
     </row>
     <row r="147">
@@ -20326,19 +19886,16 @@
           <t>Mimidae</t>
         </is>
       </c>
-      <c r="AT147" t="n">
-        <v>146</v>
+      <c r="AT147" t="inlineStr">
+        <is>
+          <t>Northern mockingbird</t>
+        </is>
       </c>
       <c r="AU147" t="n">
         <v>21</v>
       </c>
       <c r="AV147" t="n">
         <v>38</v>
-      </c>
-      <c r="AW147" t="inlineStr">
-        <is>
-          <t>Northern mockingbird</t>
-        </is>
       </c>
     </row>
     <row r="148">
@@ -20455,19 +20012,16 @@
           <t>Tyrannidae</t>
         </is>
       </c>
-      <c r="AT148" t="n">
-        <v>147</v>
+      <c r="AT148" t="inlineStr">
+        <is>
+          <t>Great crested flycatcher</t>
+        </is>
       </c>
       <c r="AU148" t="n">
         <v>12</v>
       </c>
       <c r="AV148" t="n">
         <v>25</v>
-      </c>
-      <c r="AW148" t="inlineStr">
-        <is>
-          <t>Great crested flycatcher</t>
-        </is>
       </c>
     </row>
     <row r="149">
@@ -20584,19 +20138,16 @@
           <t>Turdidae</t>
         </is>
       </c>
-      <c r="AT149" t="n">
-        <v>148</v>
+      <c r="AT149" t="inlineStr">
+        <is>
+          <t>Eastern bluebird</t>
+        </is>
       </c>
       <c r="AU149" t="n">
         <v>20</v>
       </c>
       <c r="AV149" t="n">
         <v>37</v>
-      </c>
-      <c r="AW149" t="inlineStr">
-        <is>
-          <t>Eastern bluebird</t>
-        </is>
       </c>
     </row>
     <row r="150">
@@ -20719,19 +20270,16 @@
           <t>Alaudidae</t>
         </is>
       </c>
-      <c r="AT150" t="n">
-        <v>149</v>
+      <c r="AT150" t="inlineStr">
+        <is>
+          <t>Horned lark</t>
+        </is>
       </c>
       <c r="AU150" t="n">
         <v>15</v>
       </c>
       <c r="AV150" t="n">
         <v>29</v>
-      </c>
-      <c r="AW150" t="inlineStr">
-        <is>
-          <t>Horned lark</t>
-        </is>
       </c>
     </row>
     <row r="151">
@@ -20852,19 +20400,16 @@
           <t>Cardinalidae</t>
         </is>
       </c>
-      <c r="AT151" t="n">
-        <v>150</v>
+      <c r="AT151" t="inlineStr">
+        <is>
+          <t>Black-headed grosbeak</t>
+        </is>
       </c>
       <c r="AU151" t="n">
         <v>27</v>
       </c>
       <c r="AV151" t="n">
         <v>47</v>
-      </c>
-      <c r="AW151" t="inlineStr">
-        <is>
-          <t>Black-headed grosbeak</t>
-        </is>
       </c>
     </row>
     <row r="152">
@@ -20983,19 +20528,16 @@
           <t>Parulidae</t>
         </is>
       </c>
-      <c r="AT152" t="n">
-        <v>151</v>
+      <c r="AT152" t="inlineStr">
+        <is>
+          <t>Yellow warbler</t>
+        </is>
       </c>
       <c r="AU152" t="n">
         <v>26</v>
       </c>
       <c r="AV152" t="n">
         <v>46</v>
-      </c>
-      <c r="AW152" t="inlineStr">
-        <is>
-          <t>Yellow warbler</t>
-        </is>
       </c>
     </row>
     <row r="153">
@@ -21114,19 +20656,16 @@
           <t>Icteridae</t>
         </is>
       </c>
-      <c r="AT153" t="n">
-        <v>152</v>
+      <c r="AT153" t="inlineStr">
+        <is>
+          <t>Orchard oriole</t>
+        </is>
       </c>
       <c r="AU153" t="n">
         <v>25</v>
       </c>
       <c r="AV153" t="n">
         <v>45</v>
-      </c>
-      <c r="AW153" t="inlineStr">
-        <is>
-          <t>Orchard oriole</t>
-        </is>
       </c>
     </row>
     <row r="154">
@@ -21249,19 +20788,16 @@
           <t>Icteridae</t>
         </is>
       </c>
-      <c r="AT154" t="n">
-        <v>153</v>
+      <c r="AT154" t="inlineStr">
+        <is>
+          <t>Red-winged blackbird</t>
+        </is>
       </c>
       <c r="AU154" t="n">
         <v>25</v>
       </c>
       <c r="AV154" t="n">
         <v>45</v>
-      </c>
-      <c r="AW154" t="inlineStr">
-        <is>
-          <t>Red-winged blackbird</t>
-        </is>
       </c>
     </row>
     <row r="155">
@@ -21378,19 +20914,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT155" t="n">
-        <v>154</v>
+      <c r="AT155" t="inlineStr">
+        <is>
+          <t>Chipping sparrow</t>
+        </is>
       </c>
       <c r="AU155" t="n">
         <v>24</v>
       </c>
       <c r="AV155" t="n">
         <v>44</v>
-      </c>
-      <c r="AW155" t="inlineStr">
-        <is>
-          <t>Chipping sparrow</t>
-        </is>
       </c>
     </row>
     <row r="156">
@@ -21507,19 +21040,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT156" t="n">
-        <v>155</v>
+      <c r="AT156" t="inlineStr">
+        <is>
+          <t>Field sparrow</t>
+        </is>
       </c>
       <c r="AU156" t="n">
         <v>24</v>
       </c>
       <c r="AV156" t="n">
         <v>44</v>
-      </c>
-      <c r="AW156" t="inlineStr">
-        <is>
-          <t>Field sparrow</t>
-        </is>
       </c>
     </row>
     <row r="157">
@@ -21644,19 +21174,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT157" t="n">
-        <v>156</v>
+      <c r="AT157" t="inlineStr">
+        <is>
+          <t>Brewer's sparrow</t>
+        </is>
       </c>
       <c r="AU157" t="n">
         <v>24</v>
       </c>
       <c r="AV157" t="n">
         <v>44</v>
-      </c>
-      <c r="AW157" t="inlineStr">
-        <is>
-          <t>Brewer's sparrow</t>
-        </is>
       </c>
     </row>
     <row r="158">
@@ -21779,19 +21306,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT158" t="n">
-        <v>157</v>
+      <c r="AT158" t="inlineStr">
+        <is>
+          <t>Clay-colored sparrow</t>
+        </is>
       </c>
       <c r="AU158" t="n">
         <v>24</v>
       </c>
       <c r="AV158" t="n">
         <v>44</v>
-      </c>
-      <c r="AW158" t="inlineStr">
-        <is>
-          <t>Clay-colored sparrow</t>
-        </is>
       </c>
     </row>
     <row r="159">
@@ -21910,19 +21434,16 @@
           <t>Caprimulgidae</t>
         </is>
       </c>
-      <c r="AT159" t="n">
-        <v>158</v>
+      <c r="AT159" t="inlineStr">
+        <is>
+          <t>Chuck-will's-widow</t>
+        </is>
       </c>
       <c r="AU159" t="n">
         <v>4</v>
       </c>
       <c r="AV159" t="n">
         <v>7</v>
-      </c>
-      <c r="AW159" t="inlineStr">
-        <is>
-          <t>Chuck-will's-widow</t>
-        </is>
       </c>
     </row>
     <row r="160">
@@ -22039,19 +21560,16 @@
           <t>Strigidae</t>
         </is>
       </c>
-      <c r="AT160" t="n">
-        <v>159</v>
+      <c r="AT160" t="inlineStr">
+        <is>
+          <t>Barred owl</t>
+        </is>
       </c>
       <c r="AU160" t="n">
         <v>10</v>
       </c>
       <c r="AV160" t="n">
         <v>22</v>
-      </c>
-      <c r="AW160" t="inlineStr">
-        <is>
-          <t>Barred owl</t>
-        </is>
       </c>
     </row>
     <row r="161">
@@ -22166,19 +21684,16 @@
           <t>Aramidae</t>
         </is>
       </c>
-      <c r="AT161" t="n">
-        <v>160</v>
+      <c r="AT161" t="inlineStr">
+        <is>
+          <t>Limpkin</t>
+        </is>
       </c>
       <c r="AU161" t="n">
         <v>6</v>
       </c>
       <c r="AV161" t="n">
         <v>11</v>
-      </c>
-      <c r="AW161" t="inlineStr">
-        <is>
-          <t>Limpkin</t>
-        </is>
       </c>
     </row>
     <row r="162">
@@ -22293,19 +21808,16 @@
           <t>Ardeidae</t>
         </is>
       </c>
-      <c r="AT162" t="n">
-        <v>161</v>
+      <c r="AT162" t="inlineStr">
+        <is>
+          <t>Great blue heron</t>
+        </is>
       </c>
       <c r="AU162" t="n">
         <v>10</v>
       </c>
       <c r="AV162" t="n">
         <v>20</v>
-      </c>
-      <c r="AW162" t="inlineStr">
-        <is>
-          <t>Great blue heron</t>
-        </is>
       </c>
     </row>
     <row r="163">
@@ -22424,19 +21936,16 @@
           <t>Hirundinidae</t>
         </is>
       </c>
-      <c r="AT163" t="n">
-        <v>162</v>
+      <c r="AT163" t="inlineStr">
+        <is>
+          <t>Purple martin</t>
+        </is>
       </c>
       <c r="AU163" t="n">
         <v>15</v>
       </c>
       <c r="AV163" t="n">
         <v>30</v>
-      </c>
-      <c r="AW163" t="inlineStr">
-        <is>
-          <t>Purple martin</t>
-        </is>
       </c>
     </row>
     <row r="164">
@@ -22591,19 +22100,16 @@
           <t>Mimidae</t>
         </is>
       </c>
-      <c r="AT164" t="n">
-        <v>163</v>
+      <c r="AT164" t="inlineStr">
+        <is>
+          <t>Northern mockingbird</t>
+        </is>
       </c>
       <c r="AU164" t="n">
         <v>21</v>
       </c>
       <c r="AV164" t="n">
         <v>38</v>
-      </c>
-      <c r="AW164" t="inlineStr">
-        <is>
-          <t>Northern mockingbird</t>
-        </is>
       </c>
     </row>
     <row r="165">
@@ -22718,19 +22224,16 @@
           <t>Parulidae</t>
         </is>
       </c>
-      <c r="AT165" t="n">
-        <v>164</v>
+      <c r="AT165" t="inlineStr">
+        <is>
+          <t>Connecticut warbler</t>
+        </is>
       </c>
       <c r="AU165" t="n">
         <v>26</v>
       </c>
       <c r="AV165" t="n">
         <v>46</v>
-      </c>
-      <c r="AW165" t="inlineStr">
-        <is>
-          <t>Connecticut warbler</t>
-        </is>
       </c>
     </row>
     <row r="166">
@@ -22845,19 +22348,16 @@
           <t>Turdidae</t>
         </is>
       </c>
-      <c r="AT166" t="n">
-        <v>165</v>
+      <c r="AT166" t="inlineStr">
+        <is>
+          <t>Gray-cheeked thrush</t>
+        </is>
       </c>
       <c r="AU166" t="n">
         <v>20</v>
       </c>
       <c r="AV166" t="n">
         <v>37</v>
-      </c>
-      <c r="AW166" t="inlineStr">
-        <is>
-          <t>Gray-cheeked thrush</t>
-        </is>
       </c>
     </row>
     <row r="167">
@@ -22976,19 +22476,16 @@
           <t>Parulidae</t>
         </is>
       </c>
-      <c r="AT167" t="n">
-        <v>166</v>
+      <c r="AT167" t="inlineStr">
+        <is>
+          <t>Ovenbird</t>
+        </is>
       </c>
       <c r="AU167" t="n">
         <v>26</v>
       </c>
       <c r="AV167" t="n">
         <v>46</v>
-      </c>
-      <c r="AW167" t="inlineStr">
-        <is>
-          <t>Ovenbird</t>
-        </is>
       </c>
     </row>
     <row r="168">
@@ -23105,19 +22602,16 @@
           <t>Scolopacidae</t>
         </is>
       </c>
-      <c r="AT168" t="n">
-        <v>167</v>
+      <c r="AT168" t="inlineStr">
+        <is>
+          <t>American woodcock</t>
+        </is>
       </c>
       <c r="AU168" t="n">
         <v>7</v>
       </c>
       <c r="AV168" t="n">
         <v>14</v>
-      </c>
-      <c r="AW168" t="inlineStr">
-        <is>
-          <t>American woodcock</t>
-        </is>
       </c>
     </row>
     <row r="169">
@@ -23234,19 +22728,16 @@
           <t>Scolopacidae</t>
         </is>
       </c>
-      <c r="AT169" t="n">
-        <v>168</v>
+      <c r="AT169" t="inlineStr">
+        <is>
+          <t>Willet</t>
+        </is>
       </c>
       <c r="AU169" t="n">
         <v>7</v>
       </c>
       <c r="AV169" t="n">
         <v>14</v>
-      </c>
-      <c r="AW169" t="inlineStr">
-        <is>
-          <t>Willet</t>
-        </is>
       </c>
     </row>
     <row r="170">
@@ -23365,19 +22856,16 @@
           <t>Accipitridae</t>
         </is>
       </c>
-      <c r="AT170" t="n">
-        <v>169</v>
+      <c r="AT170" t="inlineStr">
+        <is>
+          <t>Red-tailed hawk</t>
+        </is>
       </c>
       <c r="AU170" t="n">
         <v>10</v>
       </c>
       <c r="AV170" t="n">
         <v>21</v>
-      </c>
-      <c r="AW170" t="inlineStr">
-        <is>
-          <t>Red-tailed hawk</t>
-        </is>
       </c>
     </row>
     <row r="171">
@@ -23496,19 +22984,16 @@
           <t>Hirundinidae</t>
         </is>
       </c>
-      <c r="AT171" t="n">
-        <v>170</v>
+      <c r="AT171" t="inlineStr">
+        <is>
+          <t>Tree swallow</t>
+        </is>
       </c>
       <c r="AU171" t="n">
         <v>15</v>
       </c>
       <c r="AV171" t="n">
         <v>30</v>
-      </c>
-      <c r="AW171" t="inlineStr">
-        <is>
-          <t>Tree swallow</t>
-        </is>
       </c>
     </row>
     <row r="172">
@@ -23623,19 +23108,16 @@
           <t>Turdidae</t>
         </is>
       </c>
-      <c r="AT172" t="n">
-        <v>171</v>
+      <c r="AT172" t="inlineStr">
+        <is>
+          <t>Mountain bluebird</t>
+        </is>
       </c>
       <c r="AU172" t="n">
         <v>20</v>
       </c>
       <c r="AV172" t="n">
         <v>37</v>
-      </c>
-      <c r="AW172" t="inlineStr">
-        <is>
-          <t>Mountain bluebird</t>
-        </is>
       </c>
     </row>
     <row r="173">
@@ -23750,19 +23232,16 @@
           <t>Fringillidae</t>
         </is>
       </c>
-      <c r="AT173" t="n">
-        <v>172</v>
+      <c r="AT173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Common redpoll </t>
+        </is>
       </c>
       <c r="AU173" t="n">
         <v>23</v>
       </c>
       <c r="AV173" t="n">
         <v>42</v>
-      </c>
-      <c r="AW173" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Common redpoll </t>
-        </is>
       </c>
     </row>
     <row r="174">
@@ -23879,19 +23358,16 @@
           <t>Fringillidae</t>
         </is>
       </c>
-      <c r="AT174" t="n">
-        <v>173</v>
+      <c r="AT174" t="inlineStr">
+        <is>
+          <t>American goldfinch</t>
+        </is>
       </c>
       <c r="AU174" t="n">
         <v>23</v>
       </c>
       <c r="AV174" t="n">
         <v>42</v>
-      </c>
-      <c r="AW174" t="inlineStr">
-        <is>
-          <t>American goldfinch</t>
-        </is>
       </c>
     </row>
     <row r="175">
@@ -24006,19 +23482,16 @@
           <t>Calcariidae</t>
         </is>
       </c>
-      <c r="AT175" t="n">
-        <v>174</v>
+      <c r="AT175" t="inlineStr">
+        <is>
+          <t>McCown’s longspur</t>
+        </is>
       </c>
       <c r="AU175" t="n">
         <v>23</v>
       </c>
       <c r="AV175" t="n">
         <v>43</v>
-      </c>
-      <c r="AW175" t="inlineStr">
-        <is>
-          <t>McCown’s longspur</t>
-        </is>
       </c>
     </row>
     <row r="176">
@@ -24135,19 +23608,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT176" t="n">
-        <v>175</v>
+      <c r="AT176" t="inlineStr">
+        <is>
+          <t>Lark bunting</t>
+        </is>
       </c>
       <c r="AU176" t="n">
         <v>24</v>
       </c>
       <c r="AV176" t="n">
         <v>44</v>
-      </c>
-      <c r="AW176" t="inlineStr">
-        <is>
-          <t>Lark bunting</t>
-        </is>
       </c>
     </row>
     <row r="177">
@@ -24268,19 +23738,16 @@
           <t>Icteridae</t>
         </is>
       </c>
-      <c r="AT177" t="n">
-        <v>176</v>
+      <c r="AT177" t="inlineStr">
+        <is>
+          <t>Western meadowlark</t>
+        </is>
       </c>
       <c r="AU177" t="n">
         <v>25</v>
       </c>
       <c r="AV177" t="n">
         <v>45</v>
-      </c>
-      <c r="AW177" t="inlineStr">
-        <is>
-          <t>Western meadowlark</t>
-        </is>
       </c>
     </row>
     <row r="178">
@@ -24397,19 +23864,16 @@
           <t>Odontophoridae</t>
         </is>
       </c>
-      <c r="AT178" t="n">
-        <v>177</v>
+      <c r="AT178" t="inlineStr">
+        <is>
+          <t>Red junglefowl</t>
+        </is>
       </c>
       <c r="AU178" t="n">
         <v>2</v>
       </c>
       <c r="AV178" t="n">
         <v>3</v>
-      </c>
-      <c r="AW178" t="inlineStr">
-        <is>
-          <t>Red junglefowl</t>
-        </is>
       </c>
     </row>
     <row r="179">
@@ -24532,19 +23996,16 @@
           <t>Parulidae</t>
         </is>
       </c>
-      <c r="AT179" t="n">
-        <v>178</v>
+      <c r="AT179" t="inlineStr">
+        <is>
+          <t>Ovenbird</t>
+        </is>
       </c>
       <c r="AU179" t="n">
         <v>26</v>
       </c>
       <c r="AV179" t="n">
         <v>46</v>
-      </c>
-      <c r="AW179" t="inlineStr">
-        <is>
-          <t>Ovenbird</t>
-        </is>
       </c>
     </row>
     <row r="180">
@@ -24671,19 +24132,16 @@
           <t>Parulidae</t>
         </is>
       </c>
-      <c r="AT180" t="n">
-        <v>179</v>
+      <c r="AT180" t="inlineStr">
+        <is>
+          <t>American redstart</t>
+        </is>
       </c>
       <c r="AU180" t="n">
         <v>26</v>
       </c>
       <c r="AV180" t="n">
         <v>46</v>
-      </c>
-      <c r="AW180" t="inlineStr">
-        <is>
-          <t>American redstart</t>
-        </is>
       </c>
     </row>
     <row r="181">
@@ -24810,19 +24268,16 @@
           <t>Parulidae</t>
         </is>
       </c>
-      <c r="AT181" t="n">
-        <v>180</v>
+      <c r="AT181" t="inlineStr">
+        <is>
+          <t>Chestnut-sided warbler</t>
+        </is>
       </c>
       <c r="AU181" t="n">
         <v>26</v>
       </c>
       <c r="AV181" t="n">
         <v>46</v>
-      </c>
-      <c r="AW181" t="inlineStr">
-        <is>
-          <t>Chestnut-sided warbler</t>
-        </is>
       </c>
     </row>
     <row r="182">
@@ -24943,19 +24398,16 @@
           <t>Phasianidae</t>
         </is>
       </c>
-      <c r="AT182" t="n">
-        <v>181</v>
+      <c r="AT182" t="inlineStr">
+        <is>
+          <t>Ruffed grouse</t>
+        </is>
       </c>
       <c r="AU182" t="n">
         <v>2</v>
       </c>
       <c r="AV182" t="n">
         <v>4</v>
-      </c>
-      <c r="AW182" t="inlineStr">
-        <is>
-          <t>Ruffed grouse</t>
-        </is>
       </c>
     </row>
     <row r="183">
@@ -25074,19 +24526,16 @@
           <t>Tyrannidae</t>
         </is>
       </c>
-      <c r="AT183" t="n">
-        <v>182</v>
+      <c r="AT183" t="inlineStr">
+        <is>
+          <t>Willow flycatcher</t>
+        </is>
       </c>
       <c r="AU183" t="n">
         <v>12</v>
       </c>
       <c r="AV183" t="n">
         <v>25</v>
-      </c>
-      <c r="AW183" t="inlineStr">
-        <is>
-          <t>Willow flycatcher</t>
-        </is>
       </c>
     </row>
     <row r="184">
@@ -25203,19 +24652,16 @@
           <t>Vireonidae</t>
         </is>
       </c>
-      <c r="AT184" t="n">
-        <v>183</v>
+      <c r="AT184" t="inlineStr">
+        <is>
+          <t>Warbling vireo</t>
+        </is>
       </c>
       <c r="AU184" t="n">
         <v>13</v>
       </c>
       <c r="AV184" t="n">
         <v>27</v>
-      </c>
-      <c r="AW184" t="inlineStr">
-        <is>
-          <t>Warbling vireo</t>
-        </is>
       </c>
     </row>
     <row r="185">
@@ -25338,19 +24784,16 @@
           <t>Troglodytidae</t>
         </is>
       </c>
-      <c r="AT185" t="n">
-        <v>184</v>
+      <c r="AT185" t="inlineStr">
+        <is>
+          <t>Bewick's wren</t>
+        </is>
       </c>
       <c r="AU185" t="n">
         <v>18</v>
       </c>
       <c r="AV185" t="n">
         <v>34</v>
-      </c>
-      <c r="AW185" t="inlineStr">
-        <is>
-          <t>Bewick's wren</t>
-        </is>
       </c>
     </row>
     <row r="186">
@@ -25471,19 +24914,16 @@
           <t>Troglodytidae</t>
         </is>
       </c>
-      <c r="AT186" t="n">
-        <v>185</v>
+      <c r="AT186" t="inlineStr">
+        <is>
+          <t>Sedge wren</t>
+        </is>
       </c>
       <c r="AU186" t="n">
         <v>18</v>
       </c>
       <c r="AV186" t="n">
         <v>34</v>
-      </c>
-      <c r="AW186" t="inlineStr">
-        <is>
-          <t>Sedge wren</t>
-        </is>
       </c>
     </row>
     <row r="187">
@@ -25616,19 +25056,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT187" t="n">
-        <v>186</v>
+      <c r="AT187" t="inlineStr">
+        <is>
+          <t>Fox sparrow</t>
+        </is>
       </c>
       <c r="AU187" t="n">
         <v>24</v>
       </c>
       <c r="AV187" t="n">
         <v>44</v>
-      </c>
-      <c r="AW187" t="inlineStr">
-        <is>
-          <t>Fox sparrow</t>
-        </is>
       </c>
     </row>
     <row r="188">
@@ -25774,8 +25211,10 @@
           <t>error</t>
         </is>
       </c>
-      <c r="AT188" t="n">
-        <v>187</v>
+      <c r="AT188" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AU188" t="inlineStr">
         <is>
@@ -25783,11 +25222,6 @@
         </is>
       </c>
       <c r="AV188" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="AW188" t="inlineStr">
         <is>
           <t>error</t>
         </is>
@@ -25925,19 +25359,16 @@
           <t>Tyrannidae</t>
         </is>
       </c>
-      <c r="AT189" t="n">
-        <v>188</v>
+      <c r="AT189" t="inlineStr">
+        <is>
+          <t>Western wood-pewee</t>
+        </is>
       </c>
       <c r="AU189" t="n">
         <v>12</v>
       </c>
       <c r="AV189" t="n">
         <v>25</v>
-      </c>
-      <c r="AW189" t="inlineStr">
-        <is>
-          <t>Western wood-pewee</t>
-        </is>
       </c>
     </row>
     <row r="190">
@@ -26077,8 +25508,10 @@
           <t>error</t>
         </is>
       </c>
-      <c r="AT190" t="n">
-        <v>189</v>
+      <c r="AT190" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AU190" t="inlineStr">
         <is>
@@ -26086,11 +25519,6 @@
         </is>
       </c>
       <c r="AV190" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="AW190" t="inlineStr">
         <is>
           <t>error</t>
         </is>
@@ -26254,19 +25682,16 @@
           <t>Icteridae</t>
         </is>
       </c>
-      <c r="AT191" t="n">
-        <v>190</v>
+      <c r="AT191" t="inlineStr">
+        <is>
+          <t>Western meadowlark</t>
+        </is>
       </c>
       <c r="AU191" t="n">
         <v>25</v>
       </c>
       <c r="AV191" t="n">
         <v>45</v>
-      </c>
-      <c r="AW191" t="inlineStr">
-        <is>
-          <t>Western meadowlark</t>
-        </is>
       </c>
     </row>
     <row r="192">
@@ -26420,19 +25845,16 @@
           <t>Tyrannidae</t>
         </is>
       </c>
-      <c r="AT192" t="n">
-        <v>191</v>
+      <c r="AT192" t="inlineStr">
+        <is>
+          <t>Acadian flycatcher</t>
+        </is>
       </c>
       <c r="AU192" t="n">
         <v>12</v>
       </c>
       <c r="AV192" t="n">
         <v>25</v>
-      </c>
-      <c r="AW192" t="inlineStr">
-        <is>
-          <t>Acadian flycatcher</t>
-        </is>
       </c>
     </row>
     <row r="193">
@@ -26566,19 +25988,16 @@
           <t>Caprimulgidae</t>
         </is>
       </c>
-      <c r="AT193" t="n">
-        <v>192</v>
+      <c r="AT193" t="inlineStr">
+        <is>
+          <t>Common nighthawk</t>
+        </is>
       </c>
       <c r="AU193" t="n">
         <v>4</v>
       </c>
       <c r="AV193" t="n">
         <v>7</v>
-      </c>
-      <c r="AW193" t="inlineStr">
-        <is>
-          <t>Common nighthawk</t>
-        </is>
       </c>
     </row>
     <row r="194">
@@ -26695,19 +26114,16 @@
           <t>Troglodytidae</t>
         </is>
       </c>
-      <c r="AT194" t="n">
-        <v>193</v>
+      <c r="AT194" t="inlineStr">
+        <is>
+          <t>Canyon wren</t>
+        </is>
       </c>
       <c r="AU194" t="n">
         <v>18</v>
       </c>
       <c r="AV194" t="n">
         <v>34</v>
-      </c>
-      <c r="AW194" t="inlineStr">
-        <is>
-          <t>Canyon wren</t>
-        </is>
       </c>
     </row>
     <row r="195">
@@ -26814,19 +26230,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT195" t="n">
-        <v>194</v>
+      <c r="AT195" t="inlineStr">
+        <is>
+          <t>American tree sparrow</t>
+        </is>
       </c>
       <c r="AU195" t="n">
         <v>24</v>
       </c>
       <c r="AV195" t="n">
         <v>44</v>
-      </c>
-      <c r="AW195" t="inlineStr">
-        <is>
-          <t>American tree sparrow</t>
-        </is>
       </c>
     </row>
     <row r="196">
@@ -26947,8 +26360,10 @@
           <t>error</t>
         </is>
       </c>
-      <c r="AT196" t="n">
-        <v>195</v>
+      <c r="AT196" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AU196" t="inlineStr">
         <is>
@@ -26956,11 +26371,6 @@
         </is>
       </c>
       <c r="AV196" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="AW196" t="inlineStr">
         <is>
           <t>error</t>
         </is>
@@ -27080,19 +26490,16 @@
           <t>Turdidae</t>
         </is>
       </c>
-      <c r="AT197" t="n">
-        <v>196</v>
+      <c r="AT197" t="inlineStr">
+        <is>
+          <t>Hermit thrush</t>
+        </is>
       </c>
       <c r="AU197" t="n">
         <v>20</v>
       </c>
       <c r="AV197" t="n">
         <v>37</v>
-      </c>
-      <c r="AW197" t="inlineStr">
-        <is>
-          <t>Hermit thrush</t>
-        </is>
       </c>
     </row>
     <row r="198">
@@ -27207,19 +26614,16 @@
           <t>Ptilonorhynchidae</t>
         </is>
       </c>
-      <c r="AT198" t="n">
-        <v>197</v>
+      <c r="AT198" t="inlineStr">
+        <is>
+          <t>Green catbird</t>
+        </is>
       </c>
       <c r="AU198" t="n">
         <v>28</v>
       </c>
       <c r="AV198" t="n">
         <v>49</v>
-      </c>
-      <c r="AW198" t="inlineStr">
-        <is>
-          <t>Green catbird</t>
-        </is>
       </c>
     </row>
     <row r="199">
@@ -27334,19 +26738,16 @@
           <t>Cardinalidae</t>
         </is>
       </c>
-      <c r="AT199" t="n">
-        <v>198</v>
+      <c r="AT199" t="inlineStr">
+        <is>
+          <t>Indigo bunting</t>
+        </is>
       </c>
       <c r="AU199" t="n">
         <v>27</v>
       </c>
       <c r="AV199" t="n">
         <v>47</v>
-      </c>
-      <c r="AW199" t="inlineStr">
-        <is>
-          <t>Indigo bunting</t>
-        </is>
       </c>
     </row>
     <row r="200">
@@ -27463,19 +26864,16 @@
           <t>Mimidae</t>
         </is>
       </c>
-      <c r="AT200" t="n">
-        <v>199</v>
+      <c r="AT200" t="inlineStr">
+        <is>
+          <t>Brown thrasher</t>
+        </is>
       </c>
       <c r="AU200" t="n">
         <v>21</v>
       </c>
       <c r="AV200" t="n">
         <v>38</v>
-      </c>
-      <c r="AW200" t="inlineStr">
-        <is>
-          <t>Brown thrasher</t>
-        </is>
       </c>
     </row>
     <row r="201">
@@ -27590,19 +26988,16 @@
           <t>Troglodytidae</t>
         </is>
       </c>
-      <c r="AT201" t="n">
-        <v>200</v>
+      <c r="AT201" t="inlineStr">
+        <is>
+          <t>Sedge wren</t>
+        </is>
       </c>
       <c r="AU201" t="n">
         <v>18</v>
       </c>
       <c r="AV201" t="n">
         <v>34</v>
-      </c>
-      <c r="AW201" t="inlineStr">
-        <is>
-          <t>Sedge wren</t>
-        </is>
       </c>
     </row>
     <row r="202">
@@ -27723,19 +27118,16 @@
           <t>Turdidae</t>
         </is>
       </c>
-      <c r="AT202" t="n">
-        <v>201</v>
+      <c r="AT202" t="inlineStr">
+        <is>
+          <t>Varied thrush</t>
+        </is>
       </c>
       <c r="AU202" t="n">
         <v>20</v>
       </c>
       <c r="AV202" t="n">
         <v>37</v>
-      </c>
-      <c r="AW202" t="inlineStr">
-        <is>
-          <t>Varied thrush</t>
-        </is>
       </c>
     </row>
     <row r="203">
@@ -27852,19 +27244,16 @@
           <t>Laniidae</t>
         </is>
       </c>
-      <c r="AT203" t="n">
-        <v>202</v>
+      <c r="AT203" t="inlineStr">
+        <is>
+          <t>Loggerhead shrike</t>
+        </is>
       </c>
       <c r="AU203" t="n">
         <v>13</v>
       </c>
       <c r="AV203" t="n">
         <v>26</v>
-      </c>
-      <c r="AW203" t="inlineStr">
-        <is>
-          <t>Loggerhead shrike</t>
-        </is>
       </c>
     </row>
     <row r="204">
@@ -27989,19 +27378,16 @@
           <t>Fringillidae</t>
         </is>
       </c>
-      <c r="AT204" t="n">
-        <v>203</v>
+      <c r="AT204" t="inlineStr">
+        <is>
+          <t>Purple finch</t>
+        </is>
       </c>
       <c r="AU204" t="n">
         <v>23</v>
       </c>
       <c r="AV204" t="n">
         <v>42</v>
-      </c>
-      <c r="AW204" t="inlineStr">
-        <is>
-          <t>Purple finch</t>
-        </is>
       </c>
     </row>
     <row r="205">
@@ -28118,19 +27504,16 @@
           <t>Turdidae</t>
         </is>
       </c>
-      <c r="AT205" t="n">
-        <v>204</v>
+      <c r="AT205" t="inlineStr">
+        <is>
+          <t>Swainson's thrush</t>
+        </is>
       </c>
       <c r="AU205" t="n">
         <v>20</v>
       </c>
       <c r="AV205" t="n">
         <v>37</v>
-      </c>
-      <c r="AW205" t="inlineStr">
-        <is>
-          <t>Swainson's thrush</t>
-        </is>
       </c>
     </row>
     <row r="206">
@@ -28247,19 +27630,16 @@
           <t>Turdidae</t>
         </is>
       </c>
-      <c r="AT206" t="n">
-        <v>205</v>
+      <c r="AT206" t="inlineStr">
+        <is>
+          <t>Gray-cheeked thrush</t>
+        </is>
       </c>
       <c r="AU206" t="n">
         <v>20</v>
       </c>
       <c r="AV206" t="n">
         <v>37</v>
-      </c>
-      <c r="AW206" t="inlineStr">
-        <is>
-          <t>Gray-cheeked thrush</t>
-        </is>
       </c>
     </row>
     <row r="207">
@@ -28378,19 +27758,16 @@
           <t>Icteridae</t>
         </is>
       </c>
-      <c r="AT207" t="n">
-        <v>206</v>
+      <c r="AT207" t="inlineStr">
+        <is>
+          <t>Scott’s oriole</t>
+        </is>
       </c>
       <c r="AU207" t="n">
         <v>25</v>
       </c>
       <c r="AV207" t="n">
         <v>45</v>
-      </c>
-      <c r="AW207" t="inlineStr">
-        <is>
-          <t>Scott’s oriole</t>
-        </is>
       </c>
     </row>
     <row r="208">
@@ -28507,19 +27884,16 @@
           <t>Parulidae</t>
         </is>
       </c>
-      <c r="AT208" t="n">
-        <v>207</v>
+      <c r="AT208" t="inlineStr">
+        <is>
+          <t>Red-faced warbler</t>
+        </is>
       </c>
       <c r="AU208" t="n">
         <v>26</v>
       </c>
       <c r="AV208" t="n">
         <v>46</v>
-      </c>
-      <c r="AW208" t="inlineStr">
-        <is>
-          <t>Red-faced warbler</t>
-        </is>
       </c>
     </row>
     <row r="209">
@@ -28638,19 +28012,16 @@
           <t>Scolopacidae</t>
         </is>
       </c>
-      <c r="AT209" t="n">
-        <v>208</v>
+      <c r="AT209" t="inlineStr">
+        <is>
+          <t>Upland sandpiper</t>
+        </is>
       </c>
       <c r="AU209" t="n">
         <v>7</v>
       </c>
       <c r="AV209" t="n">
         <v>14</v>
-      </c>
-      <c r="AW209" t="inlineStr">
-        <is>
-          <t>Upland sandpiper</t>
-        </is>
       </c>
     </row>
     <row r="210">
@@ -28769,19 +28140,16 @@
           <t>Gaviidae</t>
         </is>
       </c>
-      <c r="AT210" t="n">
-        <v>209</v>
+      <c r="AT210" t="inlineStr">
+        <is>
+          <t>Common loon</t>
+        </is>
       </c>
       <c r="AU210" t="n">
         <v>8</v>
       </c>
       <c r="AV210" t="n">
         <v>16</v>
-      </c>
-      <c r="AW210" t="inlineStr">
-        <is>
-          <t>Common loon</t>
-        </is>
       </c>
     </row>
     <row r="211">
@@ -28896,19 +28264,16 @@
           <t>Vireonidae</t>
         </is>
       </c>
-      <c r="AT211" t="n">
-        <v>210</v>
+      <c r="AT211" t="inlineStr">
+        <is>
+          <t>Bell's vireo</t>
+        </is>
       </c>
       <c r="AU211" t="n">
         <v>13</v>
       </c>
       <c r="AV211" t="n">
         <v>27</v>
-      </c>
-      <c r="AW211" t="inlineStr">
-        <is>
-          <t>Bell's vireo</t>
-        </is>
       </c>
     </row>
     <row r="212">
@@ -29027,19 +28392,16 @@
           <t>Hirundinidae</t>
         </is>
       </c>
-      <c r="AT212" t="n">
-        <v>211</v>
+      <c r="AT212" t="inlineStr">
+        <is>
+          <t>Barn swallow</t>
+        </is>
       </c>
       <c r="AU212" t="n">
         <v>15</v>
       </c>
       <c r="AV212" t="n">
         <v>30</v>
-      </c>
-      <c r="AW212" t="inlineStr">
-        <is>
-          <t>Barn swallow</t>
-        </is>
       </c>
     </row>
     <row r="213">
@@ -29158,19 +28520,16 @@
           <t>Hirundinidae</t>
         </is>
       </c>
-      <c r="AT213" t="n">
-        <v>212</v>
+      <c r="AT213" t="inlineStr">
+        <is>
+          <t>Cliff swallow</t>
+        </is>
       </c>
       <c r="AU213" t="n">
         <v>15</v>
       </c>
       <c r="AV213" t="n">
         <v>30</v>
-      </c>
-      <c r="AW213" t="inlineStr">
-        <is>
-          <t>Cliff swallow</t>
-        </is>
       </c>
     </row>
     <row r="214">
@@ -29287,19 +28646,16 @@
           <t>Icteridae</t>
         </is>
       </c>
-      <c r="AT214" t="n">
-        <v>213</v>
+      <c r="AT214" t="inlineStr">
+        <is>
+          <t>Great-tailed grackle</t>
+        </is>
       </c>
       <c r="AU214" t="n">
         <v>25</v>
       </c>
       <c r="AV214" t="n">
         <v>45</v>
-      </c>
-      <c r="AW214" t="inlineStr">
-        <is>
-          <t>Great-tailed grackle</t>
-        </is>
       </c>
     </row>
     <row r="215">
@@ -29418,19 +28774,16 @@
           <t>Troglodytidae</t>
         </is>
       </c>
-      <c r="AT215" t="n">
-        <v>214</v>
+      <c r="AT215" t="inlineStr">
+        <is>
+          <t>Winter wren</t>
+        </is>
       </c>
       <c r="AU215" t="n">
         <v>18</v>
       </c>
       <c r="AV215" t="n">
         <v>34</v>
-      </c>
-      <c r="AW215" t="inlineStr">
-        <is>
-          <t>Winter wren</t>
-        </is>
       </c>
     </row>
     <row r="216">
@@ -29551,19 +28904,16 @@
           <t>Troglodytidae</t>
         </is>
       </c>
-      <c r="AT216" t="n">
-        <v>215</v>
+      <c r="AT216" t="inlineStr">
+        <is>
+          <t>Bewick's wren</t>
+        </is>
       </c>
       <c r="AU216" t="n">
         <v>18</v>
       </c>
       <c r="AV216" t="n">
         <v>34</v>
-      </c>
-      <c r="AW216" t="inlineStr">
-        <is>
-          <t>Bewick's wren</t>
-        </is>
       </c>
     </row>
     <row r="217">
@@ -29666,19 +29016,16 @@
           <t>Turdidae</t>
         </is>
       </c>
-      <c r="AT217" t="n">
-        <v>216</v>
+      <c r="AT217" t="inlineStr">
+        <is>
+          <t>Eurasian blackbird</t>
+        </is>
       </c>
       <c r="AU217" t="n">
         <v>20</v>
       </c>
       <c r="AV217" t="n">
         <v>37</v>
-      </c>
-      <c r="AW217" t="inlineStr">
-        <is>
-          <t>Eurasian blackbird</t>
-        </is>
       </c>
     </row>
     <row r="218">
@@ -29785,19 +29132,16 @@
           <t>Sittidae</t>
         </is>
       </c>
-      <c r="AT218" t="n">
-        <v>217</v>
+      <c r="AT218" t="inlineStr">
+        <is>
+          <t>Red-breasted nuthatch</t>
+        </is>
       </c>
       <c r="AU218" t="n">
         <v>17</v>
       </c>
       <c r="AV218" t="n">
         <v>33</v>
-      </c>
-      <c r="AW218" t="inlineStr">
-        <is>
-          <t>Red-breasted nuthatch</t>
-        </is>
       </c>
     </row>
     <row r="219">
@@ -29904,19 +29248,16 @@
           <t>Icteridae</t>
         </is>
       </c>
-      <c r="AT219" t="n">
-        <v>218</v>
+      <c r="AT219" t="inlineStr">
+        <is>
+          <t>Common grackle</t>
+        </is>
       </c>
       <c r="AU219" t="n">
         <v>25</v>
       </c>
       <c r="AV219" t="n">
         <v>45</v>
-      </c>
-      <c r="AW219" t="inlineStr">
-        <is>
-          <t>Common grackle</t>
-        </is>
       </c>
     </row>
     <row r="220">
@@ -30019,19 +29360,16 @@
           <t>Paridae</t>
         </is>
       </c>
-      <c r="AT220" t="n">
-        <v>219</v>
+      <c r="AT220" t="inlineStr">
+        <is>
+          <t>Black-crested titmouse</t>
+        </is>
       </c>
       <c r="AU220" t="n">
         <v>16</v>
       </c>
       <c r="AV220" t="n">
         <v>31</v>
-      </c>
-      <c r="AW220" t="inlineStr">
-        <is>
-          <t>Black-crested titmouse</t>
-        </is>
       </c>
     </row>
     <row r="221">
@@ -30134,19 +29472,16 @@
           <t>Cardinalidae</t>
         </is>
       </c>
-      <c r="AT221" t="n">
-        <v>220</v>
+      <c r="AT221" t="inlineStr">
+        <is>
+          <t>Blue grosbeak</t>
+        </is>
       </c>
       <c r="AU221" t="n">
         <v>27</v>
       </c>
       <c r="AV221" t="n">
         <v>47</v>
-      </c>
-      <c r="AW221" t="inlineStr">
-        <is>
-          <t>Blue grosbeak</t>
-        </is>
       </c>
     </row>
     <row r="222">
@@ -30249,19 +29584,16 @@
           <t>Regulidae</t>
         </is>
       </c>
-      <c r="AT222" t="n">
-        <v>221</v>
+      <c r="AT222" t="inlineStr">
+        <is>
+          <t>Golden-crowned kinglet</t>
+        </is>
       </c>
       <c r="AU222" t="n">
         <v>19</v>
       </c>
       <c r="AV222" t="n">
         <v>35</v>
-      </c>
-      <c r="AW222" t="inlineStr">
-        <is>
-          <t>Golden-crowned kinglet</t>
-        </is>
       </c>
     </row>
     <row r="223">
@@ -30364,19 +29696,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT223" t="n">
-        <v>222</v>
+      <c r="AT223" t="inlineStr">
+        <is>
+          <t>Golden-crowned sparrow</t>
+        </is>
       </c>
       <c r="AU223" t="n">
         <v>24</v>
       </c>
       <c r="AV223" t="n">
         <v>44</v>
-      </c>
-      <c r="AW223" t="inlineStr">
-        <is>
-          <t>Golden-crowned sparrow</t>
-        </is>
       </c>
     </row>
     <row r="224">
@@ -30485,19 +29814,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT224" t="n">
-        <v>223</v>
+      <c r="AT224" t="inlineStr">
+        <is>
+          <t>Seaside sparrow</t>
+        </is>
       </c>
       <c r="AU224" t="n">
         <v>24</v>
       </c>
       <c r="AV224" t="n">
         <v>44</v>
-      </c>
-      <c r="AW224" t="inlineStr">
-        <is>
-          <t>Seaside sparrow</t>
-        </is>
       </c>
     </row>
     <row r="225">
@@ -30600,19 +29926,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT225" t="n">
-        <v>224</v>
+      <c r="AT225" t="inlineStr">
+        <is>
+          <t>Olive sparrow</t>
+        </is>
       </c>
       <c r="AU225" t="n">
         <v>24</v>
       </c>
       <c r="AV225" t="n">
         <v>44</v>
-      </c>
-      <c r="AW225" t="inlineStr">
-        <is>
-          <t>Olive sparrow</t>
-        </is>
       </c>
     </row>
     <row r="226">
@@ -30717,19 +30040,16 @@
           <t>Passerellidae</t>
         </is>
       </c>
-      <c r="AT226" t="n">
-        <v>225</v>
+      <c r="AT226" t="inlineStr">
+        <is>
+          <t>Rufous-crowned sparrow</t>
+        </is>
       </c>
       <c r="AU226" t="n">
         <v>24</v>
       </c>
       <c r="AV226" t="n">
         <v>44</v>
-      </c>
-      <c r="AW226" t="inlineStr">
-        <is>
-          <t>Rufous-crowned sparrow</t>
-        </is>
       </c>
     </row>
     <row r="227">
@@ -30832,19 +30152,16 @@
           <t>Vireonidae</t>
         </is>
       </c>
-      <c r="AT227" t="n">
-        <v>226</v>
+      <c r="AT227" t="inlineStr">
+        <is>
+          <t>Blue-headed vireo</t>
+        </is>
       </c>
       <c r="AU227" t="n">
         <v>13</v>
       </c>
       <c r="AV227" t="n">
         <v>27</v>
-      </c>
-      <c r="AW227" t="inlineStr">
-        <is>
-          <t>Blue-headed vireo</t>
-        </is>
       </c>
     </row>
     <row r="228">
@@ -30953,19 +30270,16 @@
           <t>Vireonidae</t>
         </is>
       </c>
-      <c r="AT228" t="n">
-        <v>227</v>
+      <c r="AT228" t="inlineStr">
+        <is>
+          <t>Black-capped vireo</t>
+        </is>
       </c>
       <c r="AU228" t="n">
         <v>13</v>
       </c>
       <c r="AV228" t="n">
         <v>27</v>
-      </c>
-      <c r="AW228" t="inlineStr">
-        <is>
-          <t>Black-capped vireo</t>
-        </is>
       </c>
     </row>
     <row r="229">
@@ -31068,19 +30382,16 @@
           <t>Cracidae</t>
         </is>
       </c>
-      <c r="AT229" t="n">
-        <v>228</v>
+      <c r="AT229" t="inlineStr">
+        <is>
+          <t>Plain chachalaca</t>
+        </is>
       </c>
       <c r="AU229" t="n">
         <v>2</v>
       </c>
       <c r="AV229" t="n">
         <v>2</v>
-      </c>
-      <c r="AW229" t="inlineStr">
-        <is>
-          <t>Plain chachalaca</t>
-        </is>
       </c>
     </row>
     <row r="230">
@@ -31185,19 +30496,16 @@
           <t>Icteridae</t>
         </is>
       </c>
-      <c r="AT230" t="n">
-        <v>229</v>
+      <c r="AT230" t="inlineStr">
+        <is>
+          <t>Montezuma oropendola</t>
+        </is>
       </c>
       <c r="AU230" t="n">
         <v>25</v>
       </c>
       <c r="AV230" t="n">
         <v>45</v>
-      </c>
-      <c r="AW230" t="inlineStr">
-        <is>
-          <t>Montezuma oropendola</t>
-        </is>
       </c>
     </row>
     <row r="231">
@@ -31300,19 +30608,16 @@
           <t>Anatidae</t>
         </is>
       </c>
-      <c r="AT231" t="n">
-        <v>230</v>
+      <c r="AT231" t="inlineStr">
+        <is>
+          <t>Plumed whistling duck</t>
+        </is>
       </c>
       <c r="AU231" t="n">
         <v>28</v>
       </c>
       <c r="AV231" t="n">
         <v>48</v>
-      </c>
-      <c r="AW231" t="inlineStr">
-        <is>
-          <t>Plumed whistling duck</t>
-        </is>
       </c>
     </row>
     <row r="232">
@@ -31423,19 +30728,16 @@
           <t>Ptilonorhynchidae</t>
         </is>
       </c>
-      <c r="AT232" t="n">
-        <v>231</v>
+      <c r="AT232" t="inlineStr">
+        <is>
+          <t>Tooth-billed bowerbird</t>
+        </is>
       </c>
       <c r="AU232" t="n">
         <v>28</v>
       </c>
       <c r="AV232" t="n">
         <v>49</v>
-      </c>
-      <c r="AW232" t="inlineStr">
-        <is>
-          <t>Tooth-billed bowerbird</t>
-        </is>
       </c>
     </row>
     <row r="233">
@@ -31538,19 +30840,16 @@
           <t>Ptilonorhynchidae</t>
         </is>
       </c>
-      <c r="AT233" t="n">
-        <v>232</v>
+      <c r="AT233" t="inlineStr">
+        <is>
+          <t>Green catbird</t>
+        </is>
       </c>
       <c r="AU233" t="n">
         <v>28</v>
       </c>
       <c r="AV233" t="n">
         <v>49</v>
-      </c>
-      <c r="AW233" t="inlineStr">
-        <is>
-          <t>Green catbird</t>
-        </is>
       </c>
     </row>
     <row r="234">
@@ -31653,19 +30952,16 @@
           <t>Maluridae</t>
         </is>
       </c>
-      <c r="AT234" t="n">
-        <v>233</v>
+      <c r="AT234" t="inlineStr">
+        <is>
+          <t>Red-backed fairy-wren</t>
+        </is>
       </c>
       <c r="AU234" t="n">
         <v>28</v>
       </c>
       <c r="AV234" t="n">
         <v>50</v>
-      </c>
-      <c r="AW234" t="inlineStr">
-        <is>
-          <t>Red-backed fairy-wren</t>
-        </is>
       </c>
     </row>
     <row r="235">
@@ -31768,19 +31064,16 @@
           <t>Meliphagidae</t>
         </is>
       </c>
-      <c r="AT235" t="n">
-        <v>234</v>
+      <c r="AT235" t="inlineStr">
+        <is>
+          <t>Bell miner</t>
+        </is>
       </c>
       <c r="AU235" t="n">
         <v>28</v>
       </c>
       <c r="AV235" t="n">
         <v>51</v>
-      </c>
-      <c r="AW235" t="inlineStr">
-        <is>
-          <t>Bell miner</t>
-        </is>
       </c>
     </row>
     <row r="236">
@@ -31883,19 +31176,16 @@
           <t>Meliphagidae</t>
         </is>
       </c>
-      <c r="AT236" t="n">
-        <v>235</v>
+      <c r="AT236" t="inlineStr">
+        <is>
+          <t>Scarlet honeyeater</t>
+        </is>
       </c>
       <c r="AU236" t="n">
         <v>28</v>
       </c>
       <c r="AV236" t="n">
         <v>51</v>
-      </c>
-      <c r="AW236" t="inlineStr">
-        <is>
-          <t>Scarlet honeyeater</t>
-        </is>
       </c>
     </row>
     <row r="237">
@@ -32000,19 +31290,16 @@
           <t>Orthonychidae</t>
         </is>
       </c>
-      <c r="AT237" t="n">
-        <v>236</v>
+      <c r="AT237" t="inlineStr">
+        <is>
+          <t>Chowchilla</t>
+        </is>
       </c>
       <c r="AU237" t="n">
         <v>28</v>
       </c>
       <c r="AV237" t="n">
         <v>52</v>
-      </c>
-      <c r="AW237" t="inlineStr">
-        <is>
-          <t>Chowchilla</t>
-        </is>
       </c>
     </row>
     <row r="238">
@@ -32117,19 +31404,16 @@
           <t>Psophodidae</t>
         </is>
       </c>
-      <c r="AT238" t="n">
-        <v>237</v>
+      <c r="AT238" t="inlineStr">
+        <is>
+          <t>Eastern whipbird</t>
+        </is>
       </c>
       <c r="AU238" t="n">
         <v>28</v>
       </c>
       <c r="AV238" t="n">
         <v>53</v>
-      </c>
-      <c r="AW238" t="inlineStr">
-        <is>
-          <t>Eastern whipbird</t>
-        </is>
       </c>
     </row>
     <row r="239">
@@ -32236,19 +31520,16 @@
           <t>Pachycephalidae</t>
         </is>
       </c>
-      <c r="AT239" t="n">
-        <v>238</v>
+      <c r="AT239" t="inlineStr">
+        <is>
+          <t>Golden whistler</t>
+        </is>
       </c>
       <c r="AU239" t="n">
         <v>28</v>
       </c>
       <c r="AV239" t="n">
         <v>54</v>
-      </c>
-      <c r="AW239" t="inlineStr">
-        <is>
-          <t>Golden whistler</t>
-        </is>
       </c>
     </row>
     <row r="240">
@@ -32351,19 +31632,16 @@
           <t>Pachycephalidae</t>
         </is>
       </c>
-      <c r="AT240" t="n">
-        <v>239</v>
+      <c r="AT240" t="inlineStr">
+        <is>
+          <t>Rufous whistler</t>
+        </is>
       </c>
       <c r="AU240" t="n">
         <v>28</v>
       </c>
       <c r="AV240" t="n">
         <v>54</v>
-      </c>
-      <c r="AW240" t="inlineStr">
-        <is>
-          <t>Rufous whistler</t>
-        </is>
       </c>
     </row>
     <row r="241">
@@ -32466,19 +31744,16 @@
           <t>Rhipiduridae</t>
         </is>
       </c>
-      <c r="AT241" t="n">
-        <v>240</v>
+      <c r="AT241" t="inlineStr">
+        <is>
+          <t>Rufous fantail</t>
+        </is>
       </c>
       <c r="AU241" t="n">
         <v>28</v>
       </c>
       <c r="AV241" t="n">
         <v>55</v>
-      </c>
-      <c r="AW241" t="inlineStr">
-        <is>
-          <t>Rufous fantail</t>
-        </is>
       </c>
     </row>
     <row r="242">
@@ -32581,19 +31856,16 @@
           <t>Rhipiduridae</t>
         </is>
       </c>
-      <c r="AT242" t="n">
-        <v>241</v>
+      <c r="AT242" t="inlineStr">
+        <is>
+          <t>Willie wagtail</t>
+        </is>
       </c>
       <c r="AU242" t="n">
         <v>28</v>
       </c>
       <c r="AV242" t="n">
         <v>55</v>
-      </c>
-      <c r="AW242" t="inlineStr">
-        <is>
-          <t>Willie wagtail</t>
-        </is>
       </c>
     </row>
     <row r="243">
@@ -32696,19 +31968,16 @@
           <t>Corvidae</t>
         </is>
       </c>
-      <c r="AT243" t="n">
-        <v>242</v>
+      <c r="AT243" t="inlineStr">
+        <is>
+          <t>Forest raven</t>
+        </is>
       </c>
       <c r="AU243" t="n">
         <v>28</v>
       </c>
       <c r="AV243" t="n">
         <v>56</v>
-      </c>
-      <c r="AW243" t="inlineStr">
-        <is>
-          <t>Forest raven</t>
-        </is>
       </c>
     </row>
     <row r="244">
@@ -32811,19 +32080,16 @@
           <t>Dasyuridae</t>
         </is>
       </c>
-      <c r="AT244" t="n">
-        <v>243</v>
+      <c r="AT244" t="inlineStr">
+        <is>
+          <t>Tasmanian devil</t>
+        </is>
       </c>
       <c r="AU244" t="n">
         <v>28</v>
       </c>
       <c r="AV244" t="n">
         <v>57</v>
-      </c>
-      <c r="AW244" t="inlineStr">
-        <is>
-          <t>Tasmanian devil</t>
-        </is>
       </c>
     </row>
   </sheetData>
